--- a/covid-stats.xlsx
+++ b/covid-stats.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="31620" windowHeight="12456"/>
+    <workbookView xWindow="384" yWindow="60" windowWidth="31620" windowHeight="12456" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Austria" sheetId="1" r:id="rId1"/>
-    <sheet name="UK" sheetId="4" r:id="rId2"/>
-    <sheet name="Italy" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Data" sheetId="6" r:id="rId1"/>
+    <sheet name="Austria" sheetId="1" r:id="rId2"/>
+    <sheet name="UK" sheetId="4" r:id="rId3"/>
+    <sheet name="Italy" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -23,7 +24,7 @@
     <author>David Goddard</author>
   </authors>
   <commentList>
-    <comment ref="O4" authorId="0">
+    <comment ref="C11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +44,31 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-5 day moving average of the percentage *point* gain</t>
+https://fullfact.org/health/coronavirus-testing-numbers-UK/</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Goddard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://ourworldindata.org/covid-testing</t>
         </r>
       </text>
     </comment>
@@ -78,54 +103,6 @@
           </rPr>
           <t xml:space="preserve">
 5 day moving average of the percentage *point* gain</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>David Goddard:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://fullfact.org/health/coronavirus-testing-numbers-UK/</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>David Goddard:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://ourworldindata.org/covid-testing</t>
         </r>
       </text>
     </comment>
@@ -167,8 +144,42 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>David Goddard</author>
+  </authors>
+  <commentList>
+    <comment ref="O4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Goddard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+5 day moving average of the percentage *point* gain</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -222,6 +233,30 @@
   </si>
   <si>
     <t>https://github.com/pcm-dpc/COVID-19/blob/master/dati-andamento-nazionale/dpc-covid19-ita-andamento-nazionale.csv</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Total Cases</t>
+  </si>
+  <si>
+    <t>Total Deaths</t>
+  </si>
+  <si>
+    <t>Total Tests</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Italy</t>
   </si>
 </sst>
 </file>
@@ -330,7 +365,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -364,15 +399,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,6 +410,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -585,14 +626,26 @@
                 <c:pt idx="20">
                   <c:v>8636</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="81601280"/>
-        <c:axId val="81574912"/>
+        <c:axId val="69416064"/>
+        <c:axId val="67300736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -743,11 +796,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81571840"/>
-        <c:axId val="81573376"/>
+        <c:axId val="67297664"/>
+        <c:axId val="67299200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81571840"/>
+        <c:axId val="67297664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,13 +818,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81573376"/>
+        <c:crossAx val="67299200"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81573376"/>
+        <c:axId val="67299200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,24 +838,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="81571840"/>
+        <c:crossAx val="67297664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81574912"/>
+        <c:axId val="67300736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81601280"/>
+        <c:crossAx val="69416064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="81601280"/>
+        <c:axId val="69416064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +863,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="81574912"/>
+        <c:crossAx val="67300736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -825,7 +878,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1043,25 +1096,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="85441152"/>
-        <c:axId val="85447040"/>
+        <c:axId val="78657408"/>
+        <c:axId val="78658944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85441152"/>
+        <c:axId val="78657408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85447040"/>
+        <c:crossAx val="78658944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85447040"/>
+        <c:axId val="78658944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1128,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85441152"/>
+        <c:crossAx val="78657408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1084,7 +1137,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1356,14 +1409,23 @@
                 <c:pt idx="33">
                   <c:v>92472</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="207307136"/>
-        <c:axId val="207014528"/>
+        <c:axId val="78948608"/>
+        <c:axId val="78947072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1598,11 +1660,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="206953856"/>
-        <c:axId val="207012992"/>
+        <c:axId val="78931456"/>
+        <c:axId val="78932992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="206953856"/>
+        <c:axId val="78931456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,13 +1672,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207012992"/>
+        <c:crossAx val="78932992"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207012992"/>
+        <c:axId val="78932992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1630,24 +1692,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="206953856"/>
+        <c:crossAx val="78931456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207014528"/>
+        <c:axId val="78947072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207307136"/>
+        <c:crossAx val="78948608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="207307136"/>
+        <c:axId val="78948608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,7 +1717,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="207014528"/>
+        <c:crossAx val="78947072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1670,7 +1732,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1969,25 +2031,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="207584256"/>
-        <c:axId val="210912000"/>
+        <c:axId val="79104256"/>
+        <c:axId val="79106048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207584256"/>
+        <c:axId val="79104256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210912000"/>
+        <c:crossAx val="79106048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210912000"/>
+        <c:axId val="79106048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2001,7 +2063,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="207584256"/>
+        <c:crossAx val="79104256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2010,7 +2072,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2305,25 +2367,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="210984960"/>
-        <c:axId val="210986496"/>
+        <c:axId val="79121792"/>
+        <c:axId val="79127680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="210984960"/>
+        <c:axId val="79121792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210986496"/>
+        <c:crossAx val="79127680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210986496"/>
+        <c:axId val="79127680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,7 +2399,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="210984960"/>
+        <c:crossAx val="79121792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2346,7 +2408,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2615,8 +2677,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="211079168"/>
-        <c:axId val="211073280"/>
+        <c:axId val="79179776"/>
+        <c:axId val="79177984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2851,11 +2913,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="211049472"/>
-        <c:axId val="211071744"/>
+        <c:axId val="79145984"/>
+        <c:axId val="79176448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="211049472"/>
+        <c:axId val="79145984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2863,13 +2925,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211071744"/>
+        <c:crossAx val="79176448"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211071744"/>
+        <c:axId val="79176448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2883,24 +2945,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="211049472"/>
+        <c:crossAx val="79145984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211073280"/>
+        <c:axId val="79177984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211079168"/>
+        <c:crossAx val="79179776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="211079168"/>
+        <c:axId val="79179776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2908,7 +2970,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="211073280"/>
+        <c:crossAx val="79177984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2923,7 +2985,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3221,25 +3283,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="211197952"/>
-        <c:axId val="211199488"/>
+        <c:axId val="79204352"/>
+        <c:axId val="79205888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="211197952"/>
+        <c:axId val="79204352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211199488"/>
+        <c:crossAx val="79205888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211199488"/>
+        <c:axId val="79205888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3253,7 +3315,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="211197952"/>
+        <c:crossAx val="79204352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3262,7 +3324,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3476,25 +3538,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="81613952"/>
-        <c:axId val="81615488"/>
+        <c:axId val="69443968"/>
+        <c:axId val="69445504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81613952"/>
+        <c:axId val="69443968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81615488"/>
+        <c:crossAx val="69445504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81615488"/>
+        <c:axId val="69445504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3508,7 +3570,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="81613952"/>
+        <c:crossAx val="69443968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3517,7 +3579,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3734,25 +3796,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="81647488"/>
-        <c:axId val="81649024"/>
+        <c:axId val="69465216"/>
+        <c:axId val="69466752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81647488"/>
+        <c:axId val="69465216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81649024"/>
+        <c:crossAx val="69466752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81649024"/>
+        <c:axId val="69466752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3766,7 +3828,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="81647488"/>
+        <c:crossAx val="69465216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3775,7 +3837,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3972,14 +4034,26 @@
                 <c:pt idx="20">
                   <c:v>86</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="83601280"/>
-        <c:axId val="83599744"/>
+        <c:axId val="78117120"/>
+        <c:axId val="78115584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4124,11 +4198,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83584128"/>
-        <c:axId val="83585664"/>
+        <c:axId val="78091776"/>
+        <c:axId val="78093312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83584128"/>
+        <c:axId val="78091776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4146,13 +4220,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83585664"/>
+        <c:crossAx val="78093312"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83585664"/>
+        <c:axId val="78093312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4166,24 +4240,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83584128"/>
+        <c:crossAx val="78091776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83599744"/>
+        <c:axId val="78115584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83601280"/>
+        <c:crossAx val="78117120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="83601280"/>
+        <c:axId val="78117120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4191,7 +4265,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="83599744"/>
+        <c:crossAx val="78115584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4206,7 +4280,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4420,25 +4494,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="85198720"/>
-        <c:axId val="85200256"/>
+        <c:axId val="78341248"/>
+        <c:axId val="78342784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85198720"/>
+        <c:axId val="78341248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85200256"/>
+        <c:crossAx val="78342784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85200256"/>
+        <c:axId val="78342784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4452,7 +4526,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85198720"/>
+        <c:crossAx val="78341248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4461,7 +4535,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4658,14 +4732,26 @@
                 <c:pt idx="20">
                   <c:v>19522</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="85264640"/>
-        <c:axId val="85263104"/>
+        <c:axId val="78736000"/>
+        <c:axId val="78734464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4834,11 +4920,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85186048"/>
-        <c:axId val="85187584"/>
+        <c:axId val="78710656"/>
+        <c:axId val="78712192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85186048"/>
+        <c:axId val="78710656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4856,13 +4942,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85187584"/>
+        <c:crossAx val="78712192"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85187584"/>
+        <c:axId val="78712192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4876,24 +4962,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85186048"/>
+        <c:crossAx val="78710656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85263104"/>
+        <c:axId val="78734464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85264640"/>
+        <c:crossAx val="78736000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="85264640"/>
+        <c:axId val="78736000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4901,7 +4987,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="85263104"/>
+        <c:crossAx val="78734464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4916,7 +5002,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5134,25 +5220,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="85272832"/>
-        <c:axId val="85303296"/>
+        <c:axId val="78738944"/>
+        <c:axId val="78740480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85272832"/>
+        <c:axId val="78738944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85303296"/>
+        <c:crossAx val="78740480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85303296"/>
+        <c:axId val="78740480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5166,7 +5252,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85272832"/>
+        <c:crossAx val="78738944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5175,7 +5261,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5392,25 +5478,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="85338752"/>
-        <c:axId val="85369216"/>
+        <c:axId val="78763904"/>
+        <c:axId val="78765440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85338752"/>
+        <c:axId val="78763904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85369216"/>
+        <c:crossAx val="78765440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85369216"/>
+        <c:axId val="78765440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5424,7 +5510,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85338752"/>
+        <c:crossAx val="78763904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5433,7 +5519,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5565,7 +5651,7 @@
             <c:numRef>
               <c:f>UK!$L$6:$L$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
@@ -5629,6 +5715,18 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5636,8 +5734,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="85424768"/>
-        <c:axId val="85423232"/>
+        <c:axId val="78830592"/>
+        <c:axId val="78829056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5782,11 +5880,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85399424"/>
-        <c:axId val="85400960"/>
+        <c:axId val="78813440"/>
+        <c:axId val="78827520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85399424"/>
+        <c:axId val="78813440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5804,13 +5902,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85400960"/>
+        <c:crossAx val="78827520"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85400960"/>
+        <c:axId val="78827520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5824,24 +5922,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85399424"/>
+        <c:crossAx val="78813440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85423232"/>
+        <c:axId val="78829056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85424768"/>
+        <c:crossAx val="78830592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="85424768"/>
+        <c:axId val="78830592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5849,7 +5947,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="85423232"/>
+        <c:crossAx val="78829056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5864,7 +5962,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6933,10 +7031,1640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73:E106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="24" customWidth="1"/>
+    <col min="3" max="6" width="14.77734375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="7" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="24">
+        <v>43899</v>
+      </c>
+      <c r="C3" s="2">
+        <v>24960</v>
+      </c>
+      <c r="D3" s="2">
+        <v>321</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="24">
+        <v>43900</v>
+      </c>
+      <c r="C4" s="2">
+        <v>26261</v>
+      </c>
+      <c r="D4" s="2">
+        <v>383</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="24">
+        <v>43901</v>
+      </c>
+      <c r="C5" s="2">
+        <v>27476</v>
+      </c>
+      <c r="D5" s="2">
+        <v>460</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="24">
+        <v>43902</v>
+      </c>
+      <c r="C6" s="2">
+        <v>28764</v>
+      </c>
+      <c r="D6" s="2">
+        <v>590</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="24">
+        <v>43903</v>
+      </c>
+      <c r="C7" s="2">
+        <v>32771</v>
+      </c>
+      <c r="D7" s="2">
+        <v>798</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="24">
+        <v>43904</v>
+      </c>
+      <c r="C8" s="2">
+        <v>37746</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1140</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="24">
+        <v>43905</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40279</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1391</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="24">
+        <v>43906</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1543</v>
+      </c>
+      <c r="E10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="24">
+        <v>43907</v>
+      </c>
+      <c r="C11" s="2">
+        <v>50442</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1950</v>
+      </c>
+      <c r="E11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="24">
+        <v>43908</v>
+      </c>
+      <c r="C12" s="2">
+        <v>56221</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2626</v>
+      </c>
+      <c r="E12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="24">
+        <v>43909</v>
+      </c>
+      <c r="C13" s="2">
+        <v>64621</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3269</v>
+      </c>
+      <c r="E13">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="24">
+        <v>43910</v>
+      </c>
+      <c r="C14" s="2">
+        <v>66976</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3983</v>
+      </c>
+      <c r="E14">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="24">
+        <v>43911</v>
+      </c>
+      <c r="C15" s="2">
+        <v>72818</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5018</v>
+      </c>
+      <c r="E15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="24">
+        <v>43912</v>
+      </c>
+      <c r="C16" s="2">
+        <v>78340</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5683</v>
+      </c>
+      <c r="E16">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="24">
+        <v>43913</v>
+      </c>
+      <c r="C17" s="2">
+        <v>83945</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6650</v>
+      </c>
+      <c r="E17">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="24">
+        <v>43914</v>
+      </c>
+      <c r="C18" s="2">
+        <v>90436</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8077</v>
+      </c>
+      <c r="E18">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="24">
+        <v>43915</v>
+      </c>
+      <c r="C19" s="2">
+        <v>97019</v>
+      </c>
+      <c r="D19" s="2">
+        <v>9529</v>
+      </c>
+      <c r="E19">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="24">
+        <v>43916</v>
+      </c>
+      <c r="C20" s="2">
+        <v>104866</v>
+      </c>
+      <c r="D20" s="2">
+        <v>11658</v>
+      </c>
+      <c r="E20">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="24">
+        <v>43917</v>
+      </c>
+      <c r="C21" s="2">
+        <v>113777</v>
+      </c>
+      <c r="D21" s="2">
+        <v>14543</v>
+      </c>
+      <c r="E21">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="24">
+        <v>43918</v>
+      </c>
+      <c r="C22" s="2">
+        <v>120766</v>
+      </c>
+      <c r="D22" s="2">
+        <v>17089</v>
+      </c>
+      <c r="E22">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="24">
+        <v>43919</v>
+      </c>
+      <c r="C23" s="2">
+        <v>127737</v>
+      </c>
+      <c r="D23" s="2">
+        <v>19522</v>
+      </c>
+      <c r="E23">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="24">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="24">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="24">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="24">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="24">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="24">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="24">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="24">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="24">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="24">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="24">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="24">
+        <v>43899</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4734</v>
+      </c>
+      <c r="D38" s="2">
+        <v>131</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="24">
+        <v>43900</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5026</v>
+      </c>
+      <c r="D39" s="2">
+        <v>182</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="24">
+        <v>43901</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5362</v>
+      </c>
+      <c r="D40" s="2">
+        <v>246</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="24">
+        <v>43902</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5869</v>
+      </c>
+      <c r="D41" s="2">
+        <v>361</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="24">
+        <v>43903</v>
+      </c>
+      <c r="C42" s="2">
+        <v>6582</v>
+      </c>
+      <c r="D42" s="2">
+        <v>504</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="24">
+        <v>43904</v>
+      </c>
+      <c r="C43" s="2">
+        <v>7467</v>
+      </c>
+      <c r="D43" s="2">
+        <v>655</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="24">
+        <v>43905</v>
+      </c>
+      <c r="C44" s="2">
+        <v>8167</v>
+      </c>
+      <c r="D44" s="2">
+        <v>860</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="24">
+        <v>43906</v>
+      </c>
+      <c r="C45" s="2">
+        <v>8490</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1016</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="24">
+        <v>43907</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10278</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1332</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="24">
+        <v>43908</v>
+      </c>
+      <c r="C47" s="2">
+        <v>11977</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1646</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="24">
+        <v>43909</v>
+      </c>
+      <c r="C48" s="2">
+        <v>13724</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="24">
+        <v>43910</v>
+      </c>
+      <c r="C49" s="2">
+        <v>15613</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2388</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="24">
+        <v>43911</v>
+      </c>
+      <c r="C50" s="2">
+        <v>18545</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2814</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="24">
+        <v>43912</v>
+      </c>
+      <c r="C51" s="2">
+        <v>21368</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3244</v>
+      </c>
+      <c r="E51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="24">
+        <v>43913</v>
+      </c>
+      <c r="C52" s="2">
+        <v>23429</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3924</v>
+      </c>
+      <c r="E52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="24">
+        <v>43914</v>
+      </c>
+      <c r="C53" s="2">
+        <v>28391</v>
+      </c>
+      <c r="D53" s="3">
+        <v>4876</v>
+      </c>
+      <c r="E53">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="24">
+        <v>43915</v>
+      </c>
+      <c r="C54" s="2">
+        <v>32407</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5560</v>
+      </c>
+      <c r="E54">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="24">
+        <v>43916</v>
+      </c>
+      <c r="C55" s="2">
+        <v>35995</v>
+      </c>
+      <c r="D55" s="2">
+        <v>6398</v>
+      </c>
+      <c r="E55">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="24">
+        <v>43917</v>
+      </c>
+      <c r="C56" s="2">
+        <v>39552</v>
+      </c>
+      <c r="D56" s="2">
+        <v>7399</v>
+      </c>
+      <c r="E56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="24">
+        <v>43918</v>
+      </c>
+      <c r="C57" s="2">
+        <v>42750</v>
+      </c>
+      <c r="D57" s="2">
+        <v>7995</v>
+      </c>
+      <c r="E57">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="24">
+        <v>43919</v>
+      </c>
+      <c r="C58" s="2">
+        <v>46441</v>
+      </c>
+      <c r="D58" s="2">
+        <v>8636</v>
+      </c>
+      <c r="E58">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="24">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="24">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="24">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="24">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="24">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="24">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="24">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="24">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="24">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="24">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="24">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="24">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="24">
+        <v>43885</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4324</v>
+      </c>
+      <c r="D73" s="2">
+        <v>229</v>
+      </c>
+      <c r="E73" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="24">
+        <v>43886</v>
+      </c>
+      <c r="C74" s="2">
+        <v>8623</v>
+      </c>
+      <c r="D74" s="2">
+        <v>322</v>
+      </c>
+      <c r="E74" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="24">
+        <v>43887</v>
+      </c>
+      <c r="C75" s="2">
+        <v>9587</v>
+      </c>
+      <c r="D75" s="2">
+        <v>400</v>
+      </c>
+      <c r="E75" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="24">
+        <v>43888</v>
+      </c>
+      <c r="C76" s="2">
+        <v>12014</v>
+      </c>
+      <c r="D76" s="2">
+        <v>650</v>
+      </c>
+      <c r="E76" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="24">
+        <v>43889</v>
+      </c>
+      <c r="C77" s="2">
+        <v>15695</v>
+      </c>
+      <c r="D77" s="2">
+        <v>888</v>
+      </c>
+      <c r="E77" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="24">
+        <v>43890</v>
+      </c>
+      <c r="C78" s="2">
+        <v>18661</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1128</v>
+      </c>
+      <c r="E78" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="24">
+        <v>43891</v>
+      </c>
+      <c r="C79" s="2">
+        <v>21127</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1694</v>
+      </c>
+      <c r="E79" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="24">
+        <v>43892</v>
+      </c>
+      <c r="C80" s="2">
+        <v>23345</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2036</v>
+      </c>
+      <c r="E80" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="24">
+        <v>43893</v>
+      </c>
+      <c r="C81" s="2">
+        <v>25856</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2502</v>
+      </c>
+      <c r="E81" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="24">
+        <v>43894</v>
+      </c>
+      <c r="C82" s="2">
+        <v>29837</v>
+      </c>
+      <c r="D82" s="2">
+        <v>3089</v>
+      </c>
+      <c r="E82" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="24">
+        <v>43895</v>
+      </c>
+      <c r="C83" s="2">
+        <v>32362</v>
+      </c>
+      <c r="D83" s="2">
+        <v>3858</v>
+      </c>
+      <c r="E83" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="24">
+        <v>43896</v>
+      </c>
+      <c r="C84" s="2">
+        <v>36359</v>
+      </c>
+      <c r="D84" s="2">
+        <v>4636</v>
+      </c>
+      <c r="E84" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="24">
+        <v>43897</v>
+      </c>
+      <c r="C85" s="2">
+        <v>42062</v>
+      </c>
+      <c r="D85" s="2">
+        <v>5883</v>
+      </c>
+      <c r="E85" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="24">
+        <v>43898</v>
+      </c>
+      <c r="C86" s="2">
+        <v>49937</v>
+      </c>
+      <c r="D86" s="2">
+        <v>7375</v>
+      </c>
+      <c r="E86" s="2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="24">
+        <v>43899</v>
+      </c>
+      <c r="C87" s="2">
+        <v>53826</v>
+      </c>
+      <c r="D87" s="2">
+        <v>9172</v>
+      </c>
+      <c r="E87" s="2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="24">
+        <v>43900</v>
+      </c>
+      <c r="C88" s="2">
+        <v>60761</v>
+      </c>
+      <c r="D88" s="2">
+        <v>10149</v>
+      </c>
+      <c r="E88" s="2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="24">
+        <v>43901</v>
+      </c>
+      <c r="C89" s="2">
+        <v>73154</v>
+      </c>
+      <c r="D89" s="2">
+        <v>12462</v>
+      </c>
+      <c r="E89" s="2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="24">
+        <v>43902</v>
+      </c>
+      <c r="C90" s="2">
+        <v>86011</v>
+      </c>
+      <c r="D90" s="2">
+        <v>15113</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" s="24">
+        <v>43903</v>
+      </c>
+      <c r="C91" s="2">
+        <v>97488</v>
+      </c>
+      <c r="D91" s="2">
+        <v>17660</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" s="24">
+        <v>43904</v>
+      </c>
+      <c r="C92" s="2">
+        <v>109170</v>
+      </c>
+      <c r="D92" s="2">
+        <v>21157</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="24">
+        <v>43905</v>
+      </c>
+      <c r="C93" s="2">
+        <v>124899</v>
+      </c>
+      <c r="D93" s="2">
+        <v>24747</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="24">
+        <v>43906</v>
+      </c>
+      <c r="C94" s="2">
+        <v>137962</v>
+      </c>
+      <c r="D94" s="2">
+        <v>27980</v>
+      </c>
+      <c r="E94" s="2">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" s="24">
+        <v>43907</v>
+      </c>
+      <c r="C95" s="2">
+        <v>148657</v>
+      </c>
+      <c r="D95" s="2">
+        <v>31506</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="24">
+        <v>43908</v>
+      </c>
+      <c r="C96" s="2">
+        <v>165541</v>
+      </c>
+      <c r="D96" s="2">
+        <v>35713</v>
+      </c>
+      <c r="E96" s="2">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="24">
+        <v>43909</v>
+      </c>
+      <c r="C97" s="2">
+        <v>182777</v>
+      </c>
+      <c r="D97" s="2">
+        <v>41035</v>
+      </c>
+      <c r="E97" s="2">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" s="24">
+        <v>43910</v>
+      </c>
+      <c r="C98" s="2">
+        <v>206886</v>
+      </c>
+      <c r="D98" s="2">
+        <v>47021</v>
+      </c>
+      <c r="E98" s="2">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="24">
+        <v>43911</v>
+      </c>
+      <c r="C99" s="2">
+        <v>233222</v>
+      </c>
+      <c r="D99" s="2">
+        <v>53578</v>
+      </c>
+      <c r="E99" s="2">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" s="24">
+        <v>43912</v>
+      </c>
+      <c r="C100" s="2">
+        <v>258402</v>
+      </c>
+      <c r="D100" s="2">
+        <v>59138</v>
+      </c>
+      <c r="E100" s="2">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" s="24">
+        <v>43913</v>
+      </c>
+      <c r="C101" s="2">
+        <v>275468</v>
+      </c>
+      <c r="D101" s="2">
+        <v>63927</v>
+      </c>
+      <c r="E101" s="2">
+        <v>6077</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="24">
+        <v>43914</v>
+      </c>
+      <c r="C102" s="2">
+        <v>296964</v>
+      </c>
+      <c r="D102" s="2">
+        <v>69176</v>
+      </c>
+      <c r="E102" s="2">
+        <v>6820</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" s="24">
+        <v>43915</v>
+      </c>
+      <c r="C103" s="2">
+        <v>324445</v>
+      </c>
+      <c r="D103" s="2">
+        <v>74386</v>
+      </c>
+      <c r="E103" s="2">
+        <v>7503</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" s="24">
+        <v>43916</v>
+      </c>
+      <c r="C104" s="2">
+        <v>361060</v>
+      </c>
+      <c r="D104" s="2">
+        <v>80539</v>
+      </c>
+      <c r="E104" s="2">
+        <v>8165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="24">
+        <v>43917</v>
+      </c>
+      <c r="C105" s="2">
+        <v>394079</v>
+      </c>
+      <c r="D105" s="2">
+        <v>86498</v>
+      </c>
+      <c r="E105" s="2">
+        <v>9134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" s="24">
+        <v>43918</v>
+      </c>
+      <c r="C106" s="2">
+        <v>429526</v>
+      </c>
+      <c r="D106" s="2">
+        <v>92472</v>
+      </c>
+      <c r="E106" s="2">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" s="24">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" s="24">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="24">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" s="24">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111" s="24">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="24">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113" s="24">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" s="24">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" s="24">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" s="24">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" s="24">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" s="24">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" s="24">
+        <v>43931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6948,30 +8676,30 @@
     <col min="6" max="6" width="1.21875" style="2" customWidth="1"/>
     <col min="7" max="8" width="10.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="16" customWidth="1"/>
     <col min="11" max="11" width="1.109375" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="22" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
     <col min="16" max="16" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="28.8">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="12" t="s">
         <v>12</v>
       </c>
@@ -6980,24 +8708,24 @@
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="L3" s="16" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="L3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
@@ -7025,7 +8753,7 @@
       <c r="I4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="15" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -7037,7 +8765,7 @@
       <c r="N4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7046,9 +8774,11 @@
         <v>43899</v>
       </c>
       <c r="C6" s="2">
+        <f>Data!C38</f>
         <v>4734</v>
       </c>
       <c r="G6" s="2">
+        <f>Data!D38</f>
         <v>131</v>
       </c>
       <c r="H6" s="3">
@@ -7056,16 +8786,18 @@
         <v>131</v>
       </c>
       <c r="L6">
+        <f>Data!E38</f>
         <v>0</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="19"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="8">
         <v>43900</v>
       </c>
       <c r="C7" s="2">
+        <f>Data!C39</f>
         <v>5026</v>
       </c>
       <c r="D7" s="2">
@@ -7077,6 +8809,7 @@
         <v>0.17465753424657535</v>
       </c>
       <c r="G7" s="2">
+        <f>Data!D39</f>
         <v>182</v>
       </c>
       <c r="H7" s="3">
@@ -7088,6 +8821,7 @@
         <v>0.38931297709923673</v>
       </c>
       <c r="L7">
+        <f>Data!E39</f>
         <v>0</v>
       </c>
       <c r="M7">
@@ -7095,13 +8829,14 @@
         <v>0</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="19"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="8">
         <v>43901</v>
       </c>
       <c r="C8" s="2">
+        <f>Data!C40</f>
         <v>5362</v>
       </c>
       <c r="D8" s="2">
@@ -7113,6 +8848,7 @@
         <v>0.19047619047619047</v>
       </c>
       <c r="G8" s="2">
+        <f>Data!D40</f>
         <v>246</v>
       </c>
       <c r="H8" s="3">
@@ -7124,6 +8860,7 @@
         <v>0.35164835164835173</v>
       </c>
       <c r="L8">
+        <f>Data!E40</f>
         <v>0</v>
       </c>
       <c r="M8">
@@ -7131,13 +8868,14 @@
         <v>0</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="19"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="8">
         <v>43902</v>
       </c>
       <c r="C9" s="2">
+        <f>Data!C41</f>
         <v>5869</v>
       </c>
       <c r="D9" s="2">
@@ -7149,6 +8887,7 @@
         <v>0.22682445759368836</v>
       </c>
       <c r="G9" s="2">
+        <f>Data!D41</f>
         <v>361</v>
       </c>
       <c r="H9" s="3">
@@ -7160,6 +8899,7 @@
         <v>0.46747967479674801</v>
       </c>
       <c r="L9">
+        <f>Data!E41</f>
         <v>1</v>
       </c>
       <c r="M9">
@@ -7169,13 +8909,14 @@
       <c r="N9" s="1">
         <v>1</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="8">
         <v>43903</v>
       </c>
       <c r="C10" s="2">
+        <f>Data!C42</f>
         <v>6582</v>
       </c>
       <c r="D10" s="2">
@@ -7187,6 +8928,7 @@
         <v>0.2005610098176718</v>
       </c>
       <c r="G10" s="2">
+        <f>Data!D42</f>
         <v>504</v>
       </c>
       <c r="H10" s="3">
@@ -7198,6 +8940,7 @@
         <v>0.39612188365650969</v>
       </c>
       <c r="L10">
+        <f>Data!E42</f>
         <v>1</v>
       </c>
       <c r="M10">
@@ -7208,13 +8951,14 @@
         <f t="shared" ref="N10:N19" si="5">L10/L9-1</f>
         <v>0</v>
       </c>
-      <c r="O10" s="19"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="8">
         <v>43904</v>
       </c>
       <c r="C11" s="2">
+        <f>Data!C43</f>
         <v>7467</v>
       </c>
       <c r="D11" s="2">
@@ -7226,6 +8970,7 @@
         <v>0.17062146892655367</v>
       </c>
       <c r="G11" s="2">
+        <f>Data!D43</f>
         <v>655</v>
       </c>
       <c r="H11" s="3">
@@ -7236,11 +8981,12 @@
         <f t="shared" si="3"/>
         <v>0.29960317460317465</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="16">
         <f>SUM(I7:I11)/5</f>
         <v>0.38083321236080414</v>
       </c>
       <c r="L11">
+        <f>Data!E43</f>
         <v>1</v>
       </c>
       <c r="M11">
@@ -7251,13 +8997,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O11" s="19"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="8">
         <v>43905</v>
       </c>
       <c r="C12" s="2">
+        <f>Data!C44</f>
         <v>8167</v>
       </c>
       <c r="D12" s="2">
@@ -7269,6 +9016,7 @@
         <v>0.29285714285714287</v>
       </c>
       <c r="G12" s="2">
+        <f>Data!D44</f>
         <v>860</v>
       </c>
       <c r="H12" s="3">
@@ -7279,11 +9027,12 @@
         <f t="shared" si="3"/>
         <v>0.31297709923664119</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="16">
         <f t="shared" ref="J12:J26" si="6">SUM(I8:I12)/5</f>
         <v>0.36556603678828503</v>
       </c>
       <c r="L12">
+        <f>Data!E44</f>
         <v>1</v>
       </c>
       <c r="M12">
@@ -7294,7 +9043,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="19"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="8">
@@ -7304,6 +9053,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
+        <f>Data!C45</f>
         <v>8490</v>
       </c>
       <c r="D13" s="2">
@@ -7315,6 +9065,7 @@
         <v>0.48297213622291024</v>
       </c>
       <c r="G13" s="2">
+        <f>Data!D45</f>
         <v>1016</v>
       </c>
       <c r="H13" s="3">
@@ -7325,11 +9076,12 @@
         <f t="shared" si="3"/>
         <v>0.18139534883720931</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="16">
         <f t="shared" si="6"/>
         <v>0.33151543622605656</v>
       </c>
       <c r="L13">
+        <f>Data!E45</f>
         <v>3</v>
       </c>
       <c r="M13">
@@ -7340,8 +9092,8 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O13" s="19">
-        <f t="shared" ref="O12:O26" si="7">SUM(N9:N13)/5</f>
+      <c r="O13" s="16">
+        <f t="shared" ref="O13:O26" si="7">SUM(N9:N13)/5</f>
         <v>0.6</v>
       </c>
     </row>
@@ -7353,6 +9105,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
+        <f>Data!C46</f>
         <v>10278</v>
       </c>
       <c r="D14" s="2">
@@ -7364,6 +9117,7 @@
         <v>0.1767337807606264</v>
       </c>
       <c r="G14" s="2">
+        <f>Data!D46</f>
         <v>1332</v>
       </c>
       <c r="H14" s="3">
@@ -7374,11 +9128,12 @@
         <f t="shared" ref="I14:I21" si="8">G14/G13-1</f>
         <v>0.31102362204724399</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="16">
         <f t="shared" si="6"/>
         <v>0.30022422567615575</v>
       </c>
       <c r="L14">
+        <f>Data!E46</f>
         <v>3</v>
       </c>
       <c r="M14">
@@ -7389,7 +9144,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="16">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
@@ -7402,6 +9157,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2">
+        <f>Data!C47</f>
         <v>11977</v>
       </c>
       <c r="D15" s="2">
@@ -7413,6 +9169,7 @@
         <v>0.18481459682165979</v>
       </c>
       <c r="G15" s="2">
+        <f>Data!D47</f>
         <v>1646</v>
       </c>
       <c r="H15" s="3">
@@ -7423,11 +9180,12 @@
         <f t="shared" si="8"/>
         <v>0.2357357357357357</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="16">
         <f t="shared" si="6"/>
         <v>0.26814699609200099</v>
       </c>
       <c r="L15">
+        <f>Data!E47</f>
         <v>4</v>
       </c>
       <c r="M15">
@@ -7438,7 +9196,7 @@
         <f t="shared" si="5"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="16">
         <f t="shared" si="7"/>
         <v>0.46666666666666662</v>
       </c>
@@ -7451,6 +9209,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
+        <f>Data!C48</f>
         <v>13724</v>
       </c>
       <c r="D16" s="2">
@@ -7462,6 +9221,7 @@
         <v>0.21007441327990842</v>
       </c>
       <c r="G16" s="2">
+        <f>Data!D48</f>
         <v>2013</v>
       </c>
       <c r="H16" s="3">
@@ -7472,11 +9232,12 @@
         <f t="shared" si="8"/>
         <v>0.22296476306196844</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="16">
         <f t="shared" si="6"/>
         <v>0.25281931378375971</v>
       </c>
       <c r="L16">
+        <f>Data!E48</f>
         <v>6</v>
       </c>
       <c r="M16">
@@ -7487,7 +9248,7 @@
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="16">
         <f t="shared" si="7"/>
         <v>0.56666666666666665</v>
       </c>
@@ -7500,6 +9261,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
+        <f>Data!C49</f>
         <v>15613</v>
       </c>
       <c r="D17" s="2">
@@ -7511,6 +9273,7 @@
         <v>0.19851773425092642</v>
       </c>
       <c r="G17" s="2">
+        <f>Data!D49</f>
         <v>2388</v>
       </c>
       <c r="H17" s="3">
@@ -7521,11 +9284,12 @@
         <f t="shared" si="8"/>
         <v>0.18628912071535031</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="16">
         <f t="shared" si="6"/>
         <v>0.22748171807950154</v>
       </c>
       <c r="L17">
+        <f>Data!E49</f>
         <v>6</v>
       </c>
       <c r="M17">
@@ -7536,7 +9300,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="16">
         <f t="shared" si="7"/>
         <v>0.56666666666666665</v>
       </c>
@@ -7549,6 +9313,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
+        <f>Data!C50</f>
         <v>18545</v>
       </c>
       <c r="D18" s="2">
@@ -7560,6 +9325,7 @@
         <v>0.14529331514324692</v>
       </c>
       <c r="G18" s="2">
+        <f>Data!D50</f>
         <v>2814</v>
       </c>
       <c r="H18" s="3">
@@ -7570,11 +9336,12 @@
         <f t="shared" si="8"/>
         <v>0.17839195979899491</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="16">
         <f t="shared" si="6"/>
         <v>0.22688104027185868</v>
       </c>
       <c r="L18">
+        <f>Data!E50</f>
         <v>8</v>
       </c>
       <c r="M18">
@@ -7585,7 +9352,7 @@
         <f t="shared" si="5"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="16">
         <f t="shared" si="7"/>
         <v>0.23333333333333331</v>
       </c>
@@ -7598,6 +9365,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="2">
+        <f>Data!C51</f>
         <v>21368</v>
       </c>
       <c r="D19" s="2">
@@ -7609,6 +9377,7 @@
         <v>0.15232022670917464</v>
       </c>
       <c r="G19" s="2">
+        <f>Data!D51</f>
         <v>3244</v>
       </c>
       <c r="H19" s="3">
@@ -7619,11 +9388,12 @@
         <f t="shared" si="8"/>
         <v>0.15280739161336165</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="16">
         <f t="shared" si="6"/>
         <v>0.19523779418508219</v>
       </c>
       <c r="L19">
+        <f>Data!E51</f>
         <v>16</v>
       </c>
       <c r="M19">
@@ -7634,7 +9404,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="16">
         <f t="shared" si="7"/>
         <v>0.43333333333333329</v>
       </c>
@@ -7647,6 +9417,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="2">
+        <f>Data!C52</f>
         <v>23429</v>
       </c>
       <c r="D20" s="2">
@@ -7658,6 +9429,7 @@
         <v>0.32993692382338669</v>
       </c>
       <c r="G20" s="2">
+        <f>Data!D52</f>
         <v>3924</v>
       </c>
       <c r="H20" s="3">
@@ -7668,11 +9440,12 @@
         <f t="shared" si="8"/>
         <v>0.20961775585696674</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="16">
         <f t="shared" si="6"/>
         <v>0.19001419820932841</v>
       </c>
       <c r="L20">
+        <f>Data!E52</f>
         <v>21</v>
       </c>
       <c r="M20">
@@ -7683,7 +9456,7 @@
         <f t="shared" ref="N20:N22" si="9">L20/L19-1</f>
         <v>0.3125</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="16">
         <f t="shared" si="7"/>
         <v>0.42916666666666659</v>
       </c>
@@ -7696,6 +9469,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="2">
+        <f>Data!C53</f>
         <v>28391</v>
       </c>
       <c r="D21" s="2">
@@ -7703,25 +9477,27 @@
         <v>4962</v>
       </c>
       <c r="E21" s="11">
-        <f>H21/D21</f>
+        <f t="shared" ref="E21:E26" si="10">H21/D21</f>
         <v>0.19185812172511085</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
+        <f>Data!D53</f>
         <v>4876</v>
       </c>
       <c r="H21" s="3">
-        <f>G21-G20</f>
+        <f t="shared" ref="H21:H26" si="11">G21-G20</f>
         <v>952</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="8"/>
         <v>0.24260958205912342</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="16">
         <f t="shared" si="6"/>
         <v>0.19394316200875941</v>
       </c>
       <c r="L21">
+        <f>Data!E53</f>
         <v>28</v>
       </c>
       <c r="M21">
@@ -7732,7 +9508,7 @@
         <f t="shared" si="9"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="16">
         <f t="shared" si="7"/>
         <v>0.39583333333333331</v>
       </c>
@@ -7745,6 +9521,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="2">
+        <f>Data!C54</f>
         <v>32407</v>
       </c>
       <c r="D22" s="2">
@@ -7752,25 +9529,27 @@
         <v>4016</v>
       </c>
       <c r="E22" s="11">
-        <f>H22/D22</f>
+        <f t="shared" si="10"/>
         <v>0.17031872509960158</v>
       </c>
       <c r="G22" s="2">
+        <f>Data!D54</f>
         <v>5560</v>
       </c>
       <c r="H22" s="3">
-        <f>G22-G21</f>
+        <f t="shared" si="11"/>
         <v>684</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22" si="10">G22/G21-1</f>
+        <f t="shared" ref="I22" si="12">G22/G21-1</f>
         <v>0.14027891714520102</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="16">
         <f t="shared" si="6"/>
         <v>0.18474112129472955</v>
       </c>
       <c r="L22">
+        <f>Data!E54</f>
         <v>31</v>
       </c>
       <c r="M22">
@@ -7781,7 +9560,7 @@
         <f t="shared" si="9"/>
         <v>0.10714285714285721</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="16">
         <f t="shared" si="7"/>
         <v>0.41726190476190472</v>
       </c>
@@ -7794,6 +9573,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="2">
+        <f>Data!C55</f>
         <v>35995</v>
       </c>
       <c r="D23" s="2">
@@ -7801,25 +9581,27 @@
         <v>3588</v>
       </c>
       <c r="E23" s="11">
-        <f>H23/D23</f>
+        <f t="shared" si="10"/>
         <v>0.23355629877369008</v>
       </c>
       <c r="G23" s="2">
+        <f>Data!D55</f>
         <v>6398</v>
       </c>
       <c r="H23" s="3">
-        <f>G23-G22</f>
+        <f t="shared" si="11"/>
         <v>838</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" ref="I23" si="11">G23/G22-1</f>
+        <f t="shared" ref="I23" si="13">G23/G22-1</f>
         <v>0.15071942446043174</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="16">
         <f t="shared" si="6"/>
         <v>0.17920661422701692</v>
       </c>
       <c r="L23">
+        <f>Data!E55</f>
         <v>49</v>
       </c>
       <c r="M23">
@@ -7827,10 +9609,10 @@
         <v>18</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" ref="N23" si="12">L23/L22-1</f>
+        <f t="shared" ref="N23" si="14">L23/L22-1</f>
         <v>0.58064516129032251</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23" s="16">
         <f t="shared" si="7"/>
         <v>0.46672427035330255</v>
       </c>
@@ -7843,6 +9625,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="2">
+        <f>Data!C56</f>
         <v>39552</v>
       </c>
       <c r="D24" s="2">
@@ -7850,36 +9633,38 @@
         <v>3557</v>
       </c>
       <c r="E24" s="11">
-        <f>H24/D24</f>
+        <f t="shared" si="10"/>
         <v>0.28141692437447285</v>
       </c>
       <c r="G24" s="2">
+        <f>Data!D56</f>
         <v>7399</v>
       </c>
       <c r="H24" s="3">
-        <f>G24-G23</f>
+        <f t="shared" si="11"/>
         <v>1001</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" ref="I24" si="13">G24/G23-1</f>
+        <f t="shared" ref="I24" si="15">G24/G23-1</f>
         <v>0.15645514223194756</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="16">
         <f t="shared" si="6"/>
         <v>0.17993616435073409</v>
       </c>
       <c r="L24">
+        <f>Data!E56</f>
         <v>58</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24" si="14">L24-L23</f>
+        <f t="shared" ref="M24" si="16">L24-L23</f>
         <v>9</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" ref="N24" si="15">L24/L23-1</f>
+        <f t="shared" ref="N24" si="17">L24/L23-1</f>
         <v>0.18367346938775508</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O24" s="16">
         <f t="shared" si="7"/>
         <v>0.30345896423085361</v>
       </c>
@@ -7892,6 +9677,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="2">
+        <f>Data!C57</f>
         <v>42750</v>
       </c>
       <c r="D25" s="2">
@@ -7899,36 +9685,38 @@
         <v>3198</v>
       </c>
       <c r="E25" s="11">
-        <f>H25/D25</f>
+        <f t="shared" si="10"/>
         <v>0.18636647904940587</v>
       </c>
       <c r="G25" s="2">
+        <f>Data!D57</f>
         <v>7995</v>
       </c>
       <c r="H25" s="3">
-        <f>G25-G24</f>
+        <f t="shared" si="11"/>
         <v>596</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" ref="I25" si="16">G25/G24-1</f>
+        <f t="shared" ref="I25" si="18">G25/G24-1</f>
         <v>8.0551425868360615E-2</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="16">
         <f t="shared" si="6"/>
         <v>0.15412289835301288</v>
       </c>
       <c r="L25">
+        <f>Data!E57</f>
         <v>68</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25" si="17">L25-L24</f>
+        <f t="shared" ref="M25" si="19">L25-L24</f>
         <v>10</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" ref="N25" si="18">L25/L24-1</f>
+        <f t="shared" ref="N25" si="20">L25/L24-1</f>
         <v>0.17241379310344818</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="16">
         <f t="shared" si="7"/>
         <v>0.27544172285154322</v>
       </c>
@@ -7941,6 +9729,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="2">
+        <f>Data!C58</f>
         <v>46441</v>
       </c>
       <c r="D26" s="2">
@@ -7948,36 +9737,38 @@
         <v>3691</v>
       </c>
       <c r="E26" s="11">
-        <f>H26/D26</f>
+        <f t="shared" si="10"/>
         <v>0.17366567325927934</v>
       </c>
       <c r="G26" s="2">
+        <f>Data!D58</f>
         <v>8636</v>
       </c>
       <c r="H26" s="3">
-        <f>G26-G25</f>
+        <f t="shared" si="11"/>
         <v>641</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" ref="I26" si="19">G26/G25-1</f>
+        <f t="shared" ref="I26" si="21">G26/G25-1</f>
         <v>8.0175109443402226E-2</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="16">
         <f t="shared" si="6"/>
         <v>0.12163600382986864</v>
       </c>
       <c r="L26">
+        <f>Data!E58</f>
         <v>86</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26" si="20">L26-L25</f>
+        <f t="shared" ref="M26" si="22">L26-L25</f>
         <v>18</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" ref="N26" si="21">L26/L25-1</f>
+        <f t="shared" ref="N26" si="23">L26/L25-1</f>
         <v>0.26470588235294112</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="16">
         <f t="shared" si="7"/>
         <v>0.26171623265546484</v>
       </c>
@@ -7989,6 +9780,18 @@
       <c r="B27" s="13">
         <v>14</v>
       </c>
+      <c r="C27" s="2">
+        <f>Data!C59</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <f>Data!D59</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>Data!E59</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="8">
@@ -7997,6 +9800,18 @@
       <c r="B28" s="13">
         <v>15</v>
       </c>
+      <c r="C28" s="2">
+        <f>Data!C60</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <f>Data!D60</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>Data!E60</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="8">
@@ -8005,6 +9820,18 @@
       <c r="B29" s="13">
         <v>16</v>
       </c>
+      <c r="C29" s="2">
+        <f>Data!C61</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <f>Data!D61</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f>Data!E61</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="8">
@@ -8013,6 +9840,18 @@
       <c r="B30" s="13">
         <v>17</v>
       </c>
+      <c r="C30" s="2">
+        <f>Data!C62</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <f>Data!D62</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f>Data!E62</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="8">
@@ -8021,6 +9860,18 @@
       <c r="B31" s="13">
         <v>18</v>
       </c>
+      <c r="C31" s="2">
+        <f>Data!C63</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <f>Data!D63</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>Data!E63</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="8">
@@ -8029,13 +9880,43 @@
       <c r="B32" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="2">
+        <f>Data!C64</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <f>Data!D64</f>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f>Data!E64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="8">
         <v>43926</v>
       </c>
       <c r="B33" s="13">
         <v>20</v>
+      </c>
+      <c r="C33" s="2">
+        <f>Data!C65</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <f>Data!D65</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>Data!E65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="L34">
+        <f>Data!E66</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8055,12 +9936,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8072,30 +9953,30 @@
     <col min="6" max="6" width="1.21875" style="2" customWidth="1"/>
     <col min="7" max="8" width="10.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="16" customWidth="1"/>
     <col min="11" max="11" width="1.109375" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="22" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
     <col min="16" max="16" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="28.8">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="12" t="s">
         <v>11</v>
       </c>
@@ -8104,24 +9985,24 @@
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="L3" s="16" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="L3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
@@ -8149,7 +10030,7 @@
       <c r="I4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="15" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -8161,7 +10042,7 @@
       <c r="N4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8170,6 +10051,7 @@
         <v>43899</v>
       </c>
       <c r="C6" s="2">
+        <f>Data!C3</f>
         <v>24960</v>
       </c>
       <c r="D6" s="2">
@@ -8181,25 +10063,28 @@
         <v>2.9716655148583276E-2</v>
       </c>
       <c r="G6" s="2">
+        <f>Data!D3</f>
         <v>321</v>
       </c>
       <c r="H6" s="3">
         <v>43</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
+        <f>Data!E3</f>
         <v>5</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="19"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="8">
         <v>43900</v>
       </c>
       <c r="C7" s="2">
+        <f>Data!C4</f>
         <v>26261</v>
       </c>
       <c r="D7" s="2">
@@ -8211,6 +10096,7 @@
         <v>4.7655649500384319E-2</v>
       </c>
       <c r="G7" s="2">
+        <f>Data!D4</f>
         <v>383</v>
       </c>
       <c r="H7" s="3">
@@ -8221,7 +10107,8 @@
         <f t="shared" ref="I7:I22" si="3">G7/G6-1</f>
         <v>0.19314641744548289</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
+        <f>Data!E4</f>
         <v>6</v>
       </c>
       <c r="M7">
@@ -8232,13 +10119,14 @@
         <f t="shared" ref="N7:N9" si="4">L7/L6-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="O7" s="19"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="8">
         <v>43901</v>
       </c>
       <c r="C8" s="2">
+        <f>Data!C5</f>
         <v>27476</v>
       </c>
       <c r="D8" s="2">
@@ -8250,6 +10138,7 @@
         <v>6.3374485596707816E-2</v>
       </c>
       <c r="G8" s="2">
+        <f>Data!D5</f>
         <v>460</v>
       </c>
       <c r="H8" s="3">
@@ -8260,7 +10149,8 @@
         <f t="shared" si="3"/>
         <v>0.20104438642297651</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
+        <f>Data!E5</f>
         <v>8</v>
       </c>
       <c r="M8">
@@ -8271,13 +10161,14 @@
         <f t="shared" si="4"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="O8" s="19"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="8">
         <v>43902</v>
       </c>
       <c r="C9" s="2">
+        <f>Data!C6</f>
         <v>28764</v>
       </c>
       <c r="D9" s="2">
@@ -8289,6 +10180,7 @@
         <v>0.10093167701863354</v>
       </c>
       <c r="G9" s="2">
+        <f>Data!D6</f>
         <v>590</v>
       </c>
       <c r="H9" s="3">
@@ -8299,7 +10191,8 @@
         <f t="shared" si="3"/>
         <v>0.28260869565217384</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
+        <f>Data!E6</f>
         <v>10</v>
       </c>
       <c r="M9">
@@ -8310,13 +10203,14 @@
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="8">
         <v>43903</v>
       </c>
       <c r="C10" s="2">
+        <f>Data!C7</f>
         <v>32771</v>
       </c>
       <c r="D10" s="2">
@@ -8328,6 +10222,7 @@
         <v>5.1909158971799353E-2</v>
       </c>
       <c r="G10" s="2">
+        <f>Data!D7</f>
         <v>798</v>
       </c>
       <c r="H10" s="3">
@@ -8338,7 +10233,8 @@
         <f t="shared" si="3"/>
         <v>0.35254237288135593</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
+        <f>Data!E7</f>
         <v>11</v>
       </c>
       <c r="M10">
@@ -8349,13 +10245,14 @@
         <f t="shared" ref="N10:N22" si="6">L10/L9-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O10" s="19"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="8">
         <v>43904</v>
       </c>
       <c r="C11" s="2">
+        <f>Data!C8</f>
         <v>37746</v>
       </c>
       <c r="D11" s="2">
@@ -8367,6 +10264,7 @@
         <v>6.8743718592964825E-2</v>
       </c>
       <c r="G11" s="2">
+        <f>Data!D8</f>
         <v>1140</v>
       </c>
       <c r="H11" s="3">
@@ -8377,11 +10275,12 @@
         <f t="shared" si="3"/>
         <v>0.4285714285714286</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="16">
         <f>SUM(I7:I11)/5</f>
         <v>0.29158266019468354</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
+        <f>Data!E8</f>
         <v>21</v>
       </c>
       <c r="M11">
@@ -8392,13 +10291,14 @@
         <f t="shared" si="6"/>
         <v>0.90909090909090917</v>
       </c>
-      <c r="O11" s="19"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="8">
         <v>43905</v>
       </c>
       <c r="C12" s="2">
+        <f>Data!C9</f>
         <v>40279</v>
       </c>
       <c r="D12" s="2">
@@ -8410,6 +10310,7 @@
         <v>9.9091985787603629E-2</v>
       </c>
       <c r="G12" s="2">
+        <f>Data!D9</f>
         <v>1391</v>
       </c>
       <c r="H12" s="3">
@@ -8420,11 +10321,12 @@
         <f t="shared" si="3"/>
         <v>0.22017543859649114</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="16">
         <f t="shared" ref="J12:J26" si="7">SUM(I8:I12)/5</f>
         <v>0.29698846442488519</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
+        <f>Data!E9</f>
         <v>35</v>
       </c>
       <c r="M12">
@@ -8435,13 +10337,14 @@
         <f t="shared" si="6"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="O12" s="19"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="8">
         <v>43906</v>
       </c>
       <c r="C13" s="2">
+        <f>Data!C10</f>
         <v>44105</v>
       </c>
       <c r="D13" s="2">
@@ -8453,6 +10356,7 @@
         <v>3.9728175640355461E-2</v>
       </c>
       <c r="G13" s="2">
+        <f>Data!D10</f>
         <v>1543</v>
       </c>
       <c r="H13" s="3">
@@ -8463,11 +10367,12 @@
         <f t="shared" si="3"/>
         <v>0.10927390366642697</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="16">
         <f t="shared" si="7"/>
         <v>0.27863436787357532</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
+        <f>Data!E10</f>
         <v>55</v>
       </c>
       <c r="M13">
@@ -8478,7 +10383,7 @@
         <f t="shared" si="6"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="16">
         <f t="shared" ref="O13:O26" si="8">SUM(N9:N13)/5</f>
         <v>0.49943722943722946</v>
       </c>
@@ -8488,6 +10393,7 @@
         <v>43907</v>
       </c>
       <c r="C14" s="2">
+        <f>Data!C11</f>
         <v>50442</v>
       </c>
       <c r="D14" s="2">
@@ -8499,6 +10405,7 @@
         <v>6.4225974435852928E-2</v>
       </c>
       <c r="G14" s="2">
+        <f>Data!D11</f>
         <v>1950</v>
       </c>
       <c r="H14" s="3">
@@ -8509,11 +10416,12 @@
         <f t="shared" si="3"/>
         <v>0.26377187297472449</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="16">
         <f t="shared" si="7"/>
         <v>0.27486700333808545</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
+        <f>Data!E11</f>
         <v>71</v>
       </c>
       <c r="M14">
@@ -8524,7 +10432,7 @@
         <f t="shared" si="6"/>
         <v>0.29090909090909101</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="16">
         <f t="shared" si="8"/>
         <v>0.50761904761904764</v>
       </c>
@@ -8534,6 +10442,7 @@
         <v>43908</v>
       </c>
       <c r="C15" s="2">
+        <f>Data!C12</f>
         <v>56221</v>
       </c>
       <c r="D15" s="2">
@@ -8545,6 +10454,7 @@
         <v>0.11697525523446964</v>
       </c>
       <c r="G15" s="2">
+        <f>Data!D12</f>
         <v>2626</v>
       </c>
       <c r="H15" s="3">
@@ -8555,11 +10465,12 @@
         <f t="shared" si="3"/>
         <v>0.34666666666666668</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="16">
         <f t="shared" si="7"/>
         <v>0.27369186209514756</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
+        <f>Data!E12</f>
         <v>104</v>
       </c>
       <c r="M15">
@@ -8570,7 +10481,7 @@
         <f t="shared" si="6"/>
         <v>0.46478873239436624</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="16">
         <f t="shared" si="8"/>
         <v>0.58057679409792085</v>
       </c>
@@ -8580,6 +10491,7 @@
         <v>43909</v>
       </c>
       <c r="C16" s="2">
+        <f>Data!C13</f>
         <v>64621</v>
       </c>
       <c r="D16" s="2">
@@ -8591,6 +10503,7 @@
         <v>7.6547619047619045E-2</v>
       </c>
       <c r="G16" s="2">
+        <f>Data!D13</f>
         <v>3269</v>
       </c>
       <c r="H16" s="3">
@@ -8601,11 +10514,12 @@
         <f t="shared" si="3"/>
         <v>0.24485910129474475</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="16">
         <f t="shared" si="7"/>
         <v>0.23694939663981079</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
+        <f>Data!E13</f>
         <v>144</v>
       </c>
       <c r="M16">
@@ -8616,7 +10530,7 @@
         <f t="shared" si="6"/>
         <v>0.38461538461538458</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="16">
         <f t="shared" si="8"/>
         <v>0.47568168920281606</v>
       </c>
@@ -8626,6 +10540,7 @@
         <v>43910</v>
       </c>
       <c r="C17" s="2">
+        <f>Data!C14</f>
         <v>66976</v>
       </c>
       <c r="D17" s="2">
@@ -8637,6 +10552,7 @@
         <v>0.30318471337579617</v>
       </c>
       <c r="G17" s="2">
+        <f>Data!D14</f>
         <v>3983</v>
       </c>
       <c r="H17" s="3">
@@ -8647,11 +10563,12 @@
         <f t="shared" si="3"/>
         <v>0.2184154175588866</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="16">
         <f t="shared" si="7"/>
         <v>0.23659739243228989</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
+        <f>Data!E14</f>
         <v>177</v>
       </c>
       <c r="M17">
@@ -8662,7 +10579,7 @@
         <f t="shared" si="6"/>
         <v>0.22916666666666674</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="16">
         <f t="shared" si="8"/>
         <v>0.38818168920281598</v>
       </c>
@@ -8672,6 +10589,7 @@
         <v>43911</v>
       </c>
       <c r="C18" s="2">
+        <f>Data!C15</f>
         <v>72818</v>
       </c>
       <c r="D18" s="2">
@@ -8683,6 +10601,7 @@
         <v>0.17716535433070865</v>
       </c>
       <c r="G18" s="2">
+        <f>Data!D15</f>
         <v>5018</v>
       </c>
       <c r="H18" s="3">
@@ -8693,11 +10612,12 @@
         <f t="shared" si="3"/>
         <v>0.25985438111975889</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="16">
         <f t="shared" si="7"/>
         <v>0.26671348792295629</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
+        <f>Data!E15</f>
         <v>233</v>
       </c>
       <c r="M18">
@@ -8708,7 +10628,7 @@
         <f t="shared" si="6"/>
         <v>0.31638418079096042</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="16">
         <f t="shared" si="8"/>
         <v>0.33717281107529379</v>
       </c>
@@ -8718,6 +10638,7 @@
         <v>43912</v>
       </c>
       <c r="C19" s="2">
+        <f>Data!C16</f>
         <v>78340</v>
       </c>
       <c r="D19" s="2">
@@ -8729,6 +10650,7 @@
         <v>0.12042738138355669</v>
       </c>
       <c r="G19" s="2">
+        <f>Data!D16</f>
         <v>5683</v>
       </c>
       <c r="H19" s="3">
@@ -8739,11 +10661,12 @@
         <f t="shared" si="3"/>
         <v>0.13252291749701084</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="16">
         <f t="shared" si="7"/>
         <v>0.24046369682741356</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
+        <f>Data!E16</f>
         <v>281</v>
       </c>
       <c r="M19">
@@ -8754,7 +10677,7 @@
         <f t="shared" si="6"/>
         <v>0.20600858369098707</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="16">
         <f t="shared" si="8"/>
         <v>0.32019270963167301</v>
       </c>
@@ -8767,6 +10690,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
+        <f>Data!C17</f>
         <v>83945</v>
       </c>
       <c r="D20" s="2">
@@ -8778,6 +10702,7 @@
         <v>0.17252453166815343</v>
       </c>
       <c r="G20" s="2">
+        <f>Data!D17</f>
         <v>6650</v>
       </c>
       <c r="H20" s="3">
@@ -8788,11 +10713,12 @@
         <f t="shared" si="3"/>
         <v>0.17015660742565553</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="16">
         <f t="shared" si="7"/>
         <v>0.20516168497921133</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
+        <f>Data!E17</f>
         <v>335</v>
       </c>
       <c r="M20">
@@ -8803,7 +10729,7 @@
         <f t="shared" si="6"/>
         <v>0.19217081850533813</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="16">
         <f t="shared" si="8"/>
         <v>0.2656691268538674</v>
       </c>
@@ -8817,6 +10743,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
+        <f>Data!C18</f>
         <v>90436</v>
       </c>
       <c r="D21" s="2">
@@ -8827,7 +10754,8 @@
         <f>H21/D21</f>
         <v>0.21984285934370668</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
+        <f>Data!D18</f>
         <v>8077</v>
       </c>
       <c r="H21" s="3">
@@ -8838,11 +10766,12 @@
         <f t="shared" si="3"/>
         <v>0.21458646616541355</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="16">
         <f t="shared" si="7"/>
         <v>0.19910715795334508</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="2">
+        <f>Data!E18</f>
         <v>422</v>
       </c>
       <c r="M21">
@@ -8853,7 +10782,7 @@
         <f t="shared" si="6"/>
         <v>0.25970149253731334</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="16">
         <f t="shared" si="8"/>
         <v>0.24068634843825315</v>
       </c>
@@ -8867,6 +10796,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2">
+        <f>Data!C19</f>
         <v>97019</v>
       </c>
       <c r="D22" s="2">
@@ -8878,6 +10808,7 @@
         <v>0.22056813003190034</v>
       </c>
       <c r="G22" s="2">
+        <f>Data!D19</f>
         <v>9529</v>
       </c>
       <c r="H22" s="3">
@@ -8888,11 +10819,12 @@
         <f t="shared" si="3"/>
         <v>0.17976971647889073</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="16">
         <f t="shared" si="7"/>
         <v>0.19137801773734592</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
+        <f>Data!E19</f>
         <v>465</v>
       </c>
       <c r="M22">
@@ -8903,7 +10835,7 @@
         <f t="shared" si="6"/>
         <v>0.10189573459715651</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="16">
         <f t="shared" si="8"/>
         <v>0.21523216202435108</v>
       </c>
@@ -8917,6 +10849,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="2">
+        <f>Data!C20</f>
         <v>104866</v>
       </c>
       <c r="D23" s="2">
@@ -8928,6 +10861,7 @@
         <v>0.27131387791512679</v>
       </c>
       <c r="G23" s="2">
+        <f>Data!D20</f>
         <v>11658</v>
       </c>
       <c r="H23" s="3">
@@ -8938,11 +10872,12 @@
         <f t="shared" ref="I23" si="11">G23/G22-1</f>
         <v>0.22342323433728617</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="16">
         <f t="shared" si="7"/>
         <v>0.18409178838085136</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
+        <f>Data!E20</f>
         <v>578</v>
       </c>
       <c r="M23">
@@ -8953,7 +10888,7 @@
         <f t="shared" ref="N23" si="13">L23/L22-1</f>
         <v>0.24301075268817196</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23" s="16">
         <f t="shared" si="8"/>
         <v>0.2005574764037934</v>
       </c>
@@ -8967,6 +10902,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="2">
+        <f>Data!C21</f>
         <v>113777</v>
       </c>
       <c r="D24" s="2">
@@ -8978,6 +10914,7 @@
         <v>0.32375715407922789</v>
       </c>
       <c r="G24" s="2">
+        <f>Data!D21</f>
         <v>14543</v>
       </c>
       <c r="H24" s="3">
@@ -8988,11 +10925,12 @@
         <f t="shared" ref="I24:I25" si="17">G24/G23-1</f>
         <v>0.24746954880768568</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="16">
         <f t="shared" si="7"/>
         <v>0.20708111464298634</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
+        <f>Data!E21</f>
         <v>759</v>
       </c>
       <c r="M24">
@@ -9003,7 +10941,7 @@
         <f t="shared" ref="N24:N25" si="19">L24/L23-1</f>
         <v>0.31314878892733566</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O24" s="16">
         <f t="shared" si="8"/>
         <v>0.22198551745106312</v>
       </c>
@@ -9017,6 +10955,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
+        <f>Data!C22</f>
         <v>120766</v>
       </c>
       <c r="D25" s="2">
@@ -9028,6 +10967,7 @@
         <v>0.36428673629989983</v>
       </c>
       <c r="G25" s="2">
+        <f>Data!D22</f>
         <v>17089</v>
       </c>
       <c r="H25" s="3">
@@ -9038,11 +10978,12 @@
         <f t="shared" si="17"/>
         <v>0.17506704256343264</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="16">
         <f t="shared" si="7"/>
         <v>0.20806320167054176</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
+        <f>Data!E22</f>
         <v>1019</v>
       </c>
       <c r="M25">
@@ -9053,7 +10994,7 @@
         <f t="shared" si="19"/>
         <v>0.34255599472990772</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="16">
         <f t="shared" si="8"/>
         <v>0.25206255269597705</v>
       </c>
@@ -9067,6 +11008,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="2">
+        <f>Data!C23</f>
         <v>127737</v>
       </c>
       <c r="D26" s="2">
@@ -9078,6 +11020,7 @@
         <v>0.34901735762444414</v>
       </c>
       <c r="G26" s="2">
+        <f>Data!D23</f>
         <v>19522</v>
       </c>
       <c r="H26" s="3">
@@ -9088,11 +11031,12 @@
         <f t="shared" ref="I26" si="23">G26/G25-1</f>
         <v>0.14237228626601905</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="16">
         <f t="shared" si="7"/>
         <v>0.19362036569066285</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="2">
+        <f>Data!E23</f>
         <v>1228</v>
       </c>
       <c r="M26">
@@ -9103,7 +11047,7 @@
         <f t="shared" ref="N26" si="25">L26/L25-1</f>
         <v>0.20510304219823361</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="16">
         <f t="shared" si="8"/>
         <v>0.24114286262816109</v>
       </c>
@@ -9116,6 +11060,18 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
+      <c r="C27" s="2">
+        <f>Data!C24</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <f>Data!D24</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <f>Data!E24</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="8">
@@ -9125,6 +11081,18 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
+      <c r="C28" s="2">
+        <f>Data!C25</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <f>Data!D25</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <f>Data!E25</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="8">
@@ -9134,6 +11102,18 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
+      <c r="C29" s="2">
+        <f>Data!C26</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <f>Data!D26</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <f>Data!E26</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="8">
@@ -9143,6 +11123,18 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
+      <c r="C30" s="2">
+        <f>Data!C27</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <f>Data!D27</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <f>Data!E27</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="8">
@@ -9152,6 +11144,18 @@
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
+      <c r="C31" s="2">
+        <f>Data!C28</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <f>Data!D28</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <f>Data!E28</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="8">
@@ -9161,14 +11165,38 @@
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="2">
+        <f>Data!C29</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <f>Data!D29</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <f>Data!E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="8">
         <v>43926</v>
       </c>
       <c r="B33" s="13">
         <f t="shared" si="9"/>
         <v>13</v>
+      </c>
+      <c r="C33" s="2">
+        <f>Data!C30</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <f>Data!D30</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <f>Data!E30</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9188,12 +11216,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9205,31 +11233,31 @@
     <col min="6" max="6" width="1.21875" style="2" customWidth="1"/>
     <col min="7" max="8" width="10.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="16" customWidth="1"/>
     <col min="11" max="11" width="1.109375" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="2"/>
-    <col min="15" max="15" width="7.77734375" style="22" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
     <col min="16" max="16" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="28.8">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="12" t="s">
         <v>17</v>
       </c>
@@ -9238,24 +11266,24 @@
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="L3" s="16" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="L3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
@@ -9283,7 +11311,7 @@
       <c r="I4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="15" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -9295,7 +11323,7 @@
       <c r="N4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9304,6 +11332,7 @@
         <v>43885</v>
       </c>
       <c r="C6" s="2">
+        <f>Data!C73</f>
         <v>4324</v>
       </c>
       <c r="D6" s="2">
@@ -9315,23 +11344,26 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
+        <f>Data!D73</f>
         <v>229</v>
       </c>
       <c r="H6" s="3"/>
       <c r="L6" s="2">
+        <f>Data!E73</f>
         <v>7</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="19"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="8">
         <v>43886</v>
       </c>
       <c r="C7" s="2">
+        <f>Data!C74</f>
         <v>8623</v>
       </c>
       <c r="D7" s="2">
@@ -9343,17 +11375,19 @@
         <v>2.1632937892533146E-2</v>
       </c>
       <c r="G7" s="2">
+        <f>Data!D74</f>
         <v>322</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" ref="H6:H21" si="2">G7-G6</f>
+        <f t="shared" ref="H7:H21" si="2">G7-G6</f>
         <v>93</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ref="I6:I21" si="3">G7/G6-1</f>
+        <f t="shared" ref="I7:I21" si="3">G7/G6-1</f>
         <v>0.40611353711790388</v>
       </c>
       <c r="L7" s="2">
+        <f>Data!E74</f>
         <v>10</v>
       </c>
       <c r="M7">
@@ -9361,16 +11395,17 @@
         <v>3</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N6:N24" si="4">L7/L6-1</f>
+        <f t="shared" ref="N7:N24" si="4">L7/L6-1</f>
         <v>0.4285714285714286</v>
       </c>
-      <c r="O7" s="19"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="8">
         <v>43887</v>
       </c>
       <c r="C8" s="2">
+        <f>Data!C75</f>
         <v>9587</v>
       </c>
       <c r="D8" s="2">
@@ -9382,6 +11417,7 @@
         <v>8.0912863070539423E-2</v>
       </c>
       <c r="G8" s="2">
+        <f>Data!D75</f>
         <v>400</v>
       </c>
       <c r="H8" s="3">
@@ -9393,6 +11429,7 @@
         <v>0.2422360248447204</v>
       </c>
       <c r="L8" s="2">
+        <f>Data!E75</f>
         <v>12</v>
       </c>
       <c r="M8">
@@ -9403,13 +11440,14 @@
         <f t="shared" si="4"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="O8" s="19"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="8">
         <v>43888</v>
       </c>
       <c r="C9" s="2">
+        <f>Data!C76</f>
         <v>12014</v>
       </c>
       <c r="D9" s="2">
@@ -9421,6 +11459,7 @@
         <v>0.10300782859497322</v>
       </c>
       <c r="G9" s="2">
+        <f>Data!D76</f>
         <v>650</v>
       </c>
       <c r="H9" s="3">
@@ -9432,6 +11471,7 @@
         <v>0.625</v>
       </c>
       <c r="L9" s="2">
+        <f>Data!E76</f>
         <v>17</v>
       </c>
       <c r="M9">
@@ -9442,13 +11482,14 @@
         <f t="shared" si="4"/>
         <v>0.41666666666666674</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="8">
         <v>43889</v>
       </c>
       <c r="C10" s="2">
+        <f>Data!C77</f>
         <v>15695</v>
       </c>
       <c r="D10" s="2">
@@ -9460,6 +11501,7 @@
         <v>6.4656343384949744E-2</v>
       </c>
       <c r="G10" s="2">
+        <f>Data!D77</f>
         <v>888</v>
       </c>
       <c r="H10" s="3">
@@ -9470,11 +11512,12 @@
         <f t="shared" si="3"/>
         <v>0.36615384615384605</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="16">
         <f t="shared" ref="J10:J24" si="6">SUM(I6:I10)/5</f>
         <v>0.32790068162329405</v>
       </c>
       <c r="L10" s="2">
+        <f>Data!E77</f>
         <v>21</v>
       </c>
       <c r="M10">
@@ -9485,8 +11528,8 @@
         <f t="shared" si="4"/>
         <v>0.23529411764705888</v>
       </c>
-      <c r="O10" s="19">
-        <f t="shared" ref="O8:O26" si="7">SUM(N6:N10)/5</f>
+      <c r="O10" s="16">
+        <f t="shared" ref="O10:O26" si="7">SUM(N6:N10)/5</f>
         <v>0.25610644257703086</v>
       </c>
     </row>
@@ -9495,6 +11538,7 @@
         <v>43890</v>
       </c>
       <c r="C11" s="2">
+        <f>Data!C78</f>
         <v>18661</v>
       </c>
       <c r="D11" s="2">
@@ -9506,6 +11550,7 @@
         <v>8.0917060013486183E-2</v>
       </c>
       <c r="G11" s="2">
+        <f>Data!D78</f>
         <v>1128</v>
       </c>
       <c r="H11" s="3">
@@ -9516,11 +11561,12 @@
         <f t="shared" si="3"/>
         <v>0.27027027027027017</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="16">
         <f t="shared" si="6"/>
         <v>0.38195473567734811</v>
       </c>
       <c r="L11" s="2">
+        <f>Data!E78</f>
         <v>29</v>
       </c>
       <c r="M11">
@@ -9531,7 +11577,7 @@
         <f t="shared" si="4"/>
         <v>0.38095238095238093</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="16">
         <f t="shared" si="7"/>
         <v>0.332296918767507</v>
       </c>
@@ -9541,6 +11587,7 @@
         <v>43891</v>
       </c>
       <c r="C12" s="2">
+        <f>Data!C79</f>
         <v>21127</v>
       </c>
       <c r="D12" s="2">
@@ -9552,6 +11599,7 @@
         <v>0.22952149229521493</v>
       </c>
       <c r="G12" s="2">
+        <f>Data!D79</f>
         <v>1694</v>
       </c>
       <c r="H12" s="3">
@@ -9562,11 +11610,12 @@
         <f t="shared" si="3"/>
         <v>0.50177304964539005</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="16">
         <f t="shared" si="6"/>
         <v>0.40108663818284535</v>
       </c>
       <c r="L12" s="2">
+        <f>Data!E79</f>
         <v>34</v>
       </c>
       <c r="M12">
@@ -9577,7 +11626,7 @@
         <f t="shared" si="4"/>
         <v>0.17241379310344818</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="16">
         <f t="shared" si="7"/>
         <v>0.28106539167391092</v>
       </c>
@@ -9587,6 +11636,7 @@
         <v>43892</v>
       </c>
       <c r="C13" s="2">
+        <f>Data!C80</f>
         <v>23345</v>
       </c>
       <c r="D13" s="2">
@@ -9598,6 +11648,7 @@
         <v>0.15419296663660956</v>
       </c>
       <c r="G13" s="2">
+        <f>Data!D80</f>
         <v>2036</v>
       </c>
       <c r="H13" s="3">
@@ -9608,11 +11659,12 @@
         <f t="shared" si="3"/>
         <v>0.20188902007083831</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="16">
         <f t="shared" si="6"/>
         <v>0.39301723722806892</v>
       </c>
       <c r="L13" s="2">
+        <f>Data!E80</f>
         <v>52</v>
       </c>
       <c r="M13">
@@ -9623,7 +11675,7 @@
         <f t="shared" si="4"/>
         <v>0.52941176470588225</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="16">
         <f t="shared" si="7"/>
         <v>0.34694774461508737</v>
       </c>
@@ -9633,6 +11685,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="2">
+        <f>Data!C81</f>
         <v>25856</v>
       </c>
       <c r="D14" s="2">
@@ -9644,6 +11697,7 @@
         <v>0.18558343289526086</v>
       </c>
       <c r="G14" s="2">
+        <f>Data!D81</f>
         <v>2502</v>
       </c>
       <c r="H14" s="3">
@@ -9654,11 +11708,12 @@
         <f t="shared" si="3"/>
         <v>0.22888015717092336</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="16">
         <f t="shared" si="6"/>
         <v>0.3137932686622536</v>
       </c>
       <c r="L14" s="2">
+        <f>Data!E81</f>
         <v>79</v>
       </c>
       <c r="M14">
@@ -9669,7 +11724,7 @@
         <f t="shared" si="4"/>
         <v>0.51923076923076916</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="16">
         <f t="shared" si="7"/>
         <v>0.36746056512790787</v>
       </c>
@@ -9679,6 +11734,7 @@
         <v>43894</v>
       </c>
       <c r="C15" s="2">
+        <f>Data!C82</f>
         <v>29837</v>
       </c>
       <c r="D15" s="2">
@@ -9690,6 +11746,7 @@
         <v>0.14745038934940968</v>
       </c>
       <c r="G15" s="2">
+        <f>Data!D82</f>
         <v>3089</v>
       </c>
       <c r="H15" s="3">
@@ -9700,11 +11757,12 @@
         <f t="shared" si="3"/>
         <v>0.23461231015187844</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="16">
         <f t="shared" si="6"/>
         <v>0.28748496146186009</v>
       </c>
       <c r="L15" s="2">
+        <f>Data!E82</f>
         <v>107</v>
       </c>
       <c r="M15">
@@ -9715,7 +11773,7 @@
         <f t="shared" si="4"/>
         <v>0.35443037974683533</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="16">
         <f t="shared" si="7"/>
         <v>0.39128781754786318</v>
       </c>
@@ -9725,6 +11783,7 @@
         <v>43895</v>
       </c>
       <c r="C16" s="2">
+        <f>Data!C83</f>
         <v>32362</v>
       </c>
       <c r="D16" s="2">
@@ -9736,6 +11795,7 @@
         <v>0.30455445544554455</v>
       </c>
       <c r="G16" s="2">
+        <f>Data!D83</f>
         <v>3858</v>
       </c>
       <c r="H16" s="3">
@@ -9746,11 +11806,12 @@
         <f t="shared" si="3"/>
         <v>0.24894787957267717</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="16">
         <f t="shared" si="6"/>
         <v>0.28322048332234145</v>
       </c>
       <c r="L16" s="2">
+        <f>Data!E83</f>
         <v>148</v>
       </c>
       <c r="M16">
@@ -9761,7 +11822,7 @@
         <f t="shared" si="4"/>
         <v>0.38317757009345788</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="16">
         <f t="shared" si="7"/>
         <v>0.39173285537607855</v>
       </c>
@@ -9771,6 +11832,7 @@
         <v>43896</v>
       </c>
       <c r="C17" s="2">
+        <f>Data!C84</f>
         <v>36359</v>
       </c>
       <c r="D17" s="2">
@@ -9782,6 +11844,7 @@
         <v>0.19464598448836629</v>
       </c>
       <c r="G17" s="2">
+        <f>Data!D84</f>
         <v>4636</v>
       </c>
       <c r="H17" s="3">
@@ -9792,11 +11855,12 @@
         <f t="shared" si="3"/>
         <v>0.2016588906168999</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="16">
         <f t="shared" si="6"/>
         <v>0.22319765151664345</v>
       </c>
       <c r="L17" s="2">
+        <f>Data!E84</f>
         <v>197</v>
       </c>
       <c r="M17">
@@ -9807,7 +11871,7 @@
         <f t="shared" si="4"/>
         <v>0.33108108108108114</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="16">
         <f t="shared" si="7"/>
         <v>0.42346631297160514</v>
       </c>
@@ -9817,6 +11881,7 @@
         <v>43897</v>
       </c>
       <c r="C18" s="2">
+        <f>Data!C85</f>
         <v>42062</v>
       </c>
       <c r="D18" s="2">
@@ -9828,6 +11893,7 @@
         <v>0.2186568472733649</v>
       </c>
       <c r="G18" s="2">
+        <f>Data!D85</f>
         <v>5883</v>
       </c>
       <c r="H18" s="3">
@@ -9838,11 +11904,12 @@
         <f t="shared" si="3"/>
         <v>0.26898188093183784</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="16">
         <f t="shared" si="6"/>
         <v>0.23661622368884333</v>
       </c>
       <c r="L18" s="2">
+        <f>Data!E85</f>
         <v>233</v>
       </c>
       <c r="M18">
@@ -9853,7 +11920,7 @@
         <f t="shared" si="4"/>
         <v>0.18274111675126914</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="16">
         <f t="shared" si="7"/>
         <v>0.35413218338068253</v>
       </c>
@@ -9863,6 +11930,7 @@
         <v>43898</v>
       </c>
       <c r="C19" s="2">
+        <f>Data!C86</f>
         <v>49937</v>
       </c>
       <c r="D19" s="2">
@@ -9874,6 +11942,7 @@
         <v>0.18946031746031747</v>
       </c>
       <c r="G19" s="2">
+        <f>Data!D86</f>
         <v>7375</v>
       </c>
       <c r="H19" s="3">
@@ -9884,11 +11953,12 @@
         <f t="shared" si="3"/>
         <v>0.25361210266870637</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="16">
         <f t="shared" si="6"/>
         <v>0.24156261278839994</v>
       </c>
       <c r="L19" s="2">
+        <f>Data!E86</f>
         <v>366</v>
       </c>
       <c r="M19">
@@ -9899,7 +11969,7 @@
         <f t="shared" si="4"/>
         <v>0.57081545064377681</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="16">
         <f t="shared" si="7"/>
         <v>0.36444911966328408</v>
       </c>
@@ -9912,6 +11982,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
+        <f>Data!C87</f>
         <v>53826</v>
       </c>
       <c r="D20" s="2">
@@ -9923,6 +11994,7 @@
         <v>0.46207251221393675</v>
       </c>
       <c r="G20" s="2">
+        <f>Data!D87</f>
         <v>9172</v>
       </c>
       <c r="H20" s="3">
@@ -9933,11 +12005,12 @@
         <f t="shared" si="3"/>
         <v>0.24366101694915265</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="16">
         <f t="shared" si="6"/>
         <v>0.2433723541478548</v>
       </c>
       <c r="L20" s="2">
+        <f>Data!E87</f>
         <v>463</v>
       </c>
       <c r="M20">
@@ -9948,7 +12021,7 @@
         <f t="shared" si="4"/>
         <v>0.26502732240437155</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="16">
         <f t="shared" si="7"/>
         <v>0.34656850819479129</v>
       </c>
@@ -9961,6 +12034,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
+        <f>Data!C88</f>
         <v>60761</v>
       </c>
       <c r="D21" s="2">
@@ -9972,6 +12046,7 @@
         <v>0.14087959625090121</v>
       </c>
       <c r="G21" s="2">
+        <f>Data!D88</f>
         <v>10149</v>
       </c>
       <c r="H21" s="3">
@@ -9982,11 +12057,12 @@
         <f t="shared" si="3"/>
         <v>0.10651984300043615</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="16">
         <f t="shared" si="6"/>
         <v>0.21488674683340658</v>
       </c>
       <c r="L21" s="2">
+        <f>Data!E88</f>
         <v>631</v>
       </c>
       <c r="M21">
@@ -9997,7 +12073,7 @@
         <f t="shared" si="4"/>
         <v>0.36285097192224613</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="16">
         <f t="shared" si="7"/>
         <v>0.34250318856054895</v>
       </c>
@@ -10010,6 +12086,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2">
+        <f>Data!C89</f>
         <v>73154</v>
       </c>
       <c r="D22" s="2">
@@ -10021,6 +12098,7 @@
         <v>0.18663761801016704</v>
       </c>
       <c r="G22" s="2">
+        <f>Data!D89</f>
         <v>12462</v>
       </c>
       <c r="H22" s="3">
@@ -10028,14 +12106,15 @@
         <v>2313</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:I40" si="11">G22/G21-1</f>
+        <f t="shared" ref="I22:I39" si="11">G22/G21-1</f>
         <v>0.22790422701744006</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="16">
         <f t="shared" si="6"/>
         <v>0.22013581411351463</v>
       </c>
       <c r="L22" s="2">
+        <f>Data!E89</f>
         <v>827</v>
       </c>
       <c r="M22">
@@ -10046,7 +12125,7 @@
         <f t="shared" si="4"/>
         <v>0.31061806656101432</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="16">
         <f t="shared" si="7"/>
         <v>0.33841058565653559</v>
       </c>
@@ -10059,6 +12138,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="2">
+        <f>Data!C90</f>
         <v>86011</v>
       </c>
       <c r="D23" s="2">
@@ -10070,6 +12150,7 @@
         <v>0.20619117990199892</v>
       </c>
       <c r="G23" s="2">
+        <f>Data!D90</f>
         <v>15113</v>
       </c>
       <c r="H23" s="3">
@@ -10080,11 +12161,12 @@
         <f t="shared" si="11"/>
         <v>0.21272668913497039</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="16">
         <f t="shared" si="6"/>
         <v>0.20888477575414113</v>
       </c>
       <c r="L23" s="2">
+        <f>Data!E90</f>
         <v>1016</v>
       </c>
       <c r="M23">
@@ -10095,7 +12177,7 @@
         <f t="shared" si="4"/>
         <v>0.22853688029020547</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23" s="16">
         <f t="shared" si="7"/>
         <v>0.34756973836432287</v>
       </c>
@@ -10108,6 +12190,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="2">
+        <f>Data!C91</f>
         <v>97488</v>
       </c>
       <c r="D24" s="2">
@@ -10119,6 +12202,7 @@
         <v>0.22192210507972468</v>
       </c>
       <c r="G24" s="2">
+        <f>Data!D91</f>
         <v>17660</v>
       </c>
       <c r="H24" s="3">
@@ -10129,11 +12213,12 @@
         <f t="shared" si="11"/>
         <v>0.16853040428769939</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="16">
         <f t="shared" si="6"/>
         <v>0.19186843607793974</v>
       </c>
       <c r="L24" s="2">
+        <f>Data!E91</f>
         <v>1266</v>
       </c>
       <c r="M24">
@@ -10144,7 +12229,7 @@
         <f t="shared" si="4"/>
         <v>0.24606299212598426</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O24" s="16">
         <f t="shared" si="7"/>
         <v>0.28261924666076432</v>
       </c>
@@ -10157,6 +12242,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
+        <f>Data!C92</f>
         <v>109170</v>
       </c>
       <c r="D25" s="2">
@@ -10168,6 +12254,7 @@
         <v>0.29934942646807056</v>
       </c>
       <c r="G25" s="2">
+        <f>Data!D92</f>
         <v>21157</v>
       </c>
       <c r="H25" s="3">
@@ -10178,11 +12265,12 @@
         <f t="shared" si="11"/>
         <v>0.19801812004530017</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="16">
         <f>SUM(I21:I25)/5</f>
         <v>0.18273985669716925</v>
       </c>
       <c r="L25" s="2">
+        <f>Data!E92</f>
         <v>1441</v>
       </c>
       <c r="M25">
@@ -10190,10 +12278,10 @@
         <v>175</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" ref="N24:N40" si="12">L25/L24-1</f>
+        <f t="shared" ref="N25:N39" si="12">L25/L24-1</f>
         <v>0.1382306477093207</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="16">
         <f t="shared" si="7"/>
         <v>0.25725991172175416</v>
       </c>
@@ -10206,6 +12294,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="2">
+        <f>Data!C93</f>
         <v>124899</v>
       </c>
       <c r="D26" s="2">
@@ -10217,6 +12306,7 @@
         <v>0.22824082904189713</v>
       </c>
       <c r="G26" s="2">
+        <f>Data!D93</f>
         <v>24747</v>
       </c>
       <c r="H26" s="3">
@@ -10227,11 +12317,12 @@
         <f t="shared" si="11"/>
         <v>0.16968379259819444</v>
       </c>
-      <c r="J26" s="19">
-        <f t="shared" ref="J26:J40" si="13">SUM(I22:I26)/5</f>
+      <c r="J26" s="16">
+        <f t="shared" ref="J26:J39" si="13">SUM(I22:I26)/5</f>
         <v>0.19537264661672088</v>
       </c>
       <c r="L26" s="2">
+        <f>Data!E93</f>
         <v>1809</v>
       </c>
       <c r="M26">
@@ -10242,7 +12333,7 @@
         <f t="shared" si="12"/>
         <v>0.25537820957668278</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="16">
         <f t="shared" si="7"/>
         <v>0.2357653592526415</v>
       </c>
@@ -10255,6 +12346,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="2">
+        <f>Data!C94</f>
         <v>137962</v>
       </c>
       <c r="D27" s="2">
@@ -10266,6 +12358,7 @@
         <v>0.24749291893133277</v>
       </c>
       <c r="G27" s="2">
+        <f>Data!D94</f>
         <v>27980</v>
       </c>
       <c r="H27" s="3">
@@ -10276,11 +12369,12 @@
         <f t="shared" si="11"/>
         <v>0.1306420980320846</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="16">
         <f t="shared" si="13"/>
         <v>0.17592022081964981</v>
       </c>
       <c r="L27" s="2">
+        <f>Data!E94</f>
         <v>2158</v>
       </c>
       <c r="M27">
@@ -10291,8 +12385,8 @@
         <f t="shared" si="12"/>
         <v>0.19292426755113312</v>
       </c>
-      <c r="O27" s="19">
-        <f t="shared" ref="O27:O40" si="14">SUM(N23:N27)/5</f>
+      <c r="O27" s="16">
+        <f t="shared" ref="O27:O39" si="14">SUM(N23:N27)/5</f>
         <v>0.21222659945066527</v>
       </c>
     </row>
@@ -10304,6 +12398,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="2">
+        <f>Data!C95</f>
         <v>148657</v>
       </c>
       <c r="D28" s="2">
@@ -10315,6 +12410,7 @@
         <v>0.32968676951846659</v>
       </c>
       <c r="G28" s="2">
+        <f>Data!D95</f>
         <v>31506</v>
       </c>
       <c r="H28" s="3">
@@ -10325,11 +12421,12 @@
         <f t="shared" si="11"/>
         <v>0.12601858470335947</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="16">
         <f t="shared" si="13"/>
         <v>0.15857859993332762</v>
       </c>
       <c r="L28" s="2">
+        <f>Data!E95</f>
         <v>2503</v>
       </c>
       <c r="M28">
@@ -10340,7 +12437,7 @@
         <f t="shared" si="12"/>
         <v>0.15987025023169599</v>
       </c>
-      <c r="O28" s="19">
+      <c r="O28" s="16">
         <f t="shared" si="14"/>
         <v>0.19849327343896336</v>
       </c>
@@ -10353,6 +12450,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="2">
+        <f>Data!C96</f>
         <v>165541</v>
       </c>
       <c r="D29" s="2">
@@ -10364,6 +12462,7 @@
         <v>0.24917081260364843</v>
       </c>
       <c r="G29" s="2">
+        <f>Data!D96</f>
         <v>35713</v>
       </c>
       <c r="H29" s="3">
@@ -10374,11 +12473,12 @@
         <f t="shared" si="11"/>
         <v>0.13353012124674657</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="16">
         <f t="shared" si="13"/>
         <v>0.15157854332513704</v>
       </c>
       <c r="L29" s="2">
+        <f>Data!E96</f>
         <v>2978</v>
       </c>
       <c r="M29">
@@ -10389,7 +12489,7 @@
         <f t="shared" si="12"/>
         <v>0.18977227327207347</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O29" s="16">
         <f t="shared" si="14"/>
         <v>0.1872351296681812</v>
       </c>
@@ -10402,6 +12502,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="2">
+        <f>Data!C97</f>
         <v>182777</v>
       </c>
       <c r="D30" s="2">
@@ -10413,6 +12514,7 @@
         <v>0.30877233696913436</v>
       </c>
       <c r="G30" s="2">
+        <f>Data!D97</f>
         <v>41035</v>
       </c>
       <c r="H30" s="3">
@@ -10423,11 +12525,12 @@
         <f t="shared" si="11"/>
         <v>0.14902136476913164</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="16">
         <f t="shared" si="13"/>
         <v>0.14177919226990335</v>
       </c>
       <c r="L30" s="2">
+        <f>Data!E97</f>
         <v>3405</v>
       </c>
       <c r="M30">
@@ -10438,7 +12541,7 @@
         <f t="shared" si="12"/>
         <v>0.14338482202820679</v>
       </c>
-      <c r="O30" s="19">
+      <c r="O30" s="16">
         <f t="shared" si="14"/>
         <v>0.18826596453195843</v>
       </c>
@@ -10451,6 +12554,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="2">
+        <f>Data!C98</f>
         <v>206886</v>
       </c>
       <c r="D31" s="2">
@@ -10462,6 +12566,7 @@
         <v>0.24828902069766479</v>
       </c>
       <c r="G31" s="2">
+        <f>Data!D98</f>
         <v>47021</v>
       </c>
       <c r="H31" s="3">
@@ -10472,11 +12577,12 @@
         <f t="shared" si="11"/>
         <v>0.14587547215791408</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="16">
         <f t="shared" si="13"/>
         <v>0.13701752818184726</v>
       </c>
       <c r="L31" s="2">
+        <f>Data!E98</f>
         <v>4032</v>
       </c>
       <c r="M31">
@@ -10487,7 +12593,7 @@
         <f t="shared" si="12"/>
         <v>0.1841409691629956</v>
       </c>
-      <c r="O31" s="19">
+      <c r="O31" s="16">
         <f t="shared" si="14"/>
         <v>0.17401851644922101</v>
       </c>
@@ -10500,6 +12606,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="2">
+        <f>Data!C99</f>
         <v>233222</v>
       </c>
       <c r="D32" s="2">
@@ -10511,6 +12618,7 @@
         <v>0.24897478736330497</v>
       </c>
       <c r="G32" s="2">
+        <f>Data!D99</f>
         <v>53578</v>
       </c>
       <c r="H32" s="3">
@@ -10521,11 +12629,12 @@
         <f t="shared" si="11"/>
         <v>0.1394483315965207</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="16">
         <f t="shared" si="13"/>
         <v>0.1387787748947345</v>
       </c>
       <c r="L32" s="2">
+        <f>Data!E99</f>
         <v>4825</v>
       </c>
       <c r="M32">
@@ -10536,7 +12645,7 @@
         <f t="shared" si="12"/>
         <v>0.19667658730158721</v>
       </c>
-      <c r="O32" s="19">
+      <c r="O32" s="16">
         <f t="shared" si="14"/>
         <v>0.17476898039931182</v>
       </c>
@@ -10549,6 +12658,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="2">
+        <f>Data!C100</f>
         <v>258402</v>
       </c>
       <c r="D33" s="2">
@@ -10560,6 +12670,7 @@
         <v>0.22081016679904686</v>
       </c>
       <c r="G33" s="2">
+        <f>Data!D100</f>
         <v>59138</v>
       </c>
       <c r="H33" s="3">
@@ -10570,11 +12681,12 @@
         <f t="shared" si="11"/>
         <v>0.10377393706372029</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="16">
         <f t="shared" si="13"/>
         <v>0.13432984536680664</v>
       </c>
       <c r="L33" s="2">
+        <f>Data!E100</f>
         <v>5476</v>
       </c>
       <c r="M33">
@@ -10585,7 +12697,7 @@
         <f t="shared" si="12"/>
         <v>0.13492227979274607</v>
       </c>
-      <c r="O33" s="19">
+      <c r="O33" s="16">
         <f t="shared" si="14"/>
         <v>0.16977938631152184</v>
       </c>
@@ -10598,6 +12710,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="2">
+        <f>Data!C101</f>
         <v>275468</v>
       </c>
       <c r="D34" s="2">
@@ -10609,6 +12722,7 @@
         <v>0.28061643032930972</v>
       </c>
       <c r="G34" s="2">
+        <f>Data!D101</f>
         <v>63927</v>
       </c>
       <c r="H34" s="3">
@@ -10619,11 +12733,12 @@
         <f t="shared" si="11"/>
         <v>8.0980080489702067E-2</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="16">
         <f t="shared" si="13"/>
         <v>0.12381983721539776</v>
       </c>
       <c r="L34" s="2">
+        <f>Data!E101</f>
         <v>6077</v>
       </c>
       <c r="M34">
@@ -10634,7 +12749,7 @@
         <f t="shared" si="12"/>
         <v>0.10975164353542732</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="16">
         <f t="shared" si="14"/>
         <v>0.15377526036419259</v>
       </c>
@@ -10647,6 +12762,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="2">
+        <f>Data!C102</f>
         <v>296964</v>
       </c>
       <c r="D35" s="2">
@@ -10658,6 +12774,7 @@
         <v>0.24418496464458503</v>
       </c>
       <c r="G35" s="2">
+        <f>Data!D102</f>
         <v>69176</v>
       </c>
       <c r="H35" s="3">
@@ -10668,11 +12785,12 @@
         <f t="shared" si="11"/>
         <v>8.2109280898524872E-2</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="16">
         <f t="shared" si="13"/>
         <v>0.1104374204412764</v>
       </c>
       <c r="L35" s="2">
+        <f>Data!E102</f>
         <v>6820</v>
       </c>
       <c r="M35">
@@ -10683,7 +12801,7 @@
         <f t="shared" si="12"/>
         <v>0.12226427513575788</v>
       </c>
-      <c r="O35" s="19">
+      <c r="O35" s="16">
         <f t="shared" si="14"/>
         <v>0.14955115098570282</v>
       </c>
@@ -10696,6 +12814,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="2">
+        <f>Data!C103</f>
         <v>324445</v>
       </c>
       <c r="D36" s="2">
@@ -10707,6 +12826,7 @@
         <v>0.18958553182198609</v>
       </c>
       <c r="G36" s="2">
+        <f>Data!D103</f>
         <v>74386</v>
       </c>
       <c r="H36" s="3">
@@ -10717,11 +12837,12 @@
         <f t="shared" si="11"/>
         <v>7.5315138198219111E-2</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="16">
         <f t="shared" si="13"/>
         <v>9.6325353649337406E-2</v>
       </c>
       <c r="L36" s="2">
+        <f>Data!E103</f>
         <v>7503</v>
       </c>
       <c r="M36">
@@ -10732,7 +12853,7 @@
         <f t="shared" si="12"/>
         <v>0.10014662756598236</v>
       </c>
-      <c r="O36" s="19">
+      <c r="O36" s="16">
         <f t="shared" si="14"/>
         <v>0.13275228266630018</v>
       </c>
@@ -10745,6 +12866,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="2">
+        <f>Data!C104</f>
         <v>361060</v>
       </c>
       <c r="D37" s="2">
@@ -10756,6 +12878,7 @@
         <v>0.16804588283490374</v>
       </c>
       <c r="G37" s="2">
+        <f>Data!D104</f>
         <v>80539</v>
       </c>
       <c r="H37" s="3">
@@ -10766,11 +12889,12 @@
         <f t="shared" si="11"/>
         <v>8.2717177963595345E-2</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="16">
         <f t="shared" si="13"/>
         <v>8.4979122922752337E-2</v>
       </c>
       <c r="L37" s="2">
+        <f>Data!E104</f>
         <v>8165</v>
       </c>
       <c r="M37">
@@ -10781,7 +12905,7 @@
         <f t="shared" si="12"/>
         <v>8.8231374117019756E-2</v>
       </c>
-      <c r="O37" s="19">
+      <c r="O37" s="16">
         <f t="shared" si="14"/>
         <v>0.11106324002938668</v>
       </c>
@@ -10794,6 +12918,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="2">
+        <f>Data!C105</f>
         <v>394079</v>
       </c>
       <c r="D38" s="2">
@@ -10805,6 +12930,7 @@
         <v>0.18047184954117326</v>
       </c>
       <c r="G38" s="2">
+        <f>Data!D105</f>
         <v>86498</v>
       </c>
       <c r="H38" s="3">
@@ -10815,11 +12941,12 @@
         <f t="shared" si="11"/>
         <v>7.398899911843948E-2</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="16">
         <f t="shared" si="13"/>
         <v>7.9022135333696175E-2</v>
       </c>
       <c r="L38" s="2">
+        <f>Data!E105</f>
         <v>9134</v>
       </c>
       <c r="M38">
@@ -10830,7 +12957,7 @@
         <f t="shared" si="12"/>
         <v>0.11867728107777098</v>
       </c>
-      <c r="O38" s="19">
+      <c r="O38" s="16">
         <f t="shared" si="14"/>
         <v>0.10781424028639167</v>
       </c>
@@ -10843,6 +12970,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="2">
+        <f>Data!C106</f>
         <v>429526</v>
       </c>
       <c r="D39" s="2">
@@ -10854,6 +12982,7 @@
         <v>0.16853330324145907</v>
       </c>
       <c r="G39" s="2">
+        <f>Data!D106</f>
         <v>92472</v>
       </c>
       <c r="H39" s="3">
@@ -10864,11 +12993,12 @@
         <f t="shared" si="11"/>
         <v>6.9065180697819528E-2</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="16">
         <f t="shared" si="13"/>
         <v>7.6639155375319665E-2</v>
       </c>
       <c r="L39" s="2">
+        <f>Data!E106</f>
         <v>10023</v>
       </c>
       <c r="M39">
@@ -10879,7 +13009,7 @@
         <f t="shared" si="12"/>
         <v>9.7328662141449529E-2</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O39" s="16">
         <f t="shared" si="14"/>
         <v>0.1053296440075961</v>
       </c>
@@ -10891,9 +13021,21 @@
       <c r="B40" s="13">
         <v>20</v>
       </c>
+      <c r="C40" s="2">
+        <f>Data!C107</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <f>Data!D107</f>
+        <v>0</v>
+      </c>
       <c r="H40" s="3"/>
+      <c r="L40" s="2">
+        <f>Data!E107</f>
+        <v>0</v>
+      </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="19"/>
+      <c r="O40" s="16"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="8">
@@ -10902,6 +13044,18 @@
       <c r="B41" s="13">
         <v>21</v>
       </c>
+      <c r="C41" s="2">
+        <f>Data!C108</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <f>Data!D108</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <f>Data!E108</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="8">
@@ -10910,6 +13064,18 @@
       <c r="B42" s="13">
         <v>22</v>
       </c>
+      <c r="C42" s="2">
+        <f>Data!C109</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <f>Data!D109</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <f>Data!E109</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="8">
@@ -10918,6 +13084,18 @@
       <c r="B43" s="13">
         <v>23</v>
       </c>
+      <c r="C43" s="2">
+        <f>Data!C110</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <f>Data!D110</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <f>Data!E110</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="8">
@@ -10926,6 +13104,18 @@
       <c r="B44" s="13">
         <v>24</v>
       </c>
+      <c r="C44" s="2">
+        <f>Data!C111</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <f>Data!D111</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <f>Data!E111</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="8">
@@ -10934,6 +13124,18 @@
       <c r="B45" s="13">
         <v>25</v>
       </c>
+      <c r="C45" s="2">
+        <f>Data!C112</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <f>Data!D112</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <f>Data!E112</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="8">
@@ -10942,6 +13144,18 @@
       <c r="B46" s="13">
         <v>26</v>
       </c>
+      <c r="C46" s="2">
+        <f>Data!C113</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <f>Data!D113</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <f>Data!E113</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:16" s="2" customFormat="1">
       <c r="A47" s="8">
@@ -10950,13 +13164,25 @@
       <c r="B47" s="13">
         <v>27</v>
       </c>
+      <c r="C47" s="2">
+        <f>Data!C114</f>
+        <v>0</v>
+      </c>
       <c r="E47" s="11"/>
+      <c r="G47" s="2">
+        <f>Data!D114</f>
+        <v>0</v>
+      </c>
       <c r="I47" s="1"/>
-      <c r="J47" s="19"/>
+      <c r="J47" s="16"/>
       <c r="K47"/>
+      <c r="L47" s="2">
+        <f>Data!E114</f>
+        <v>0</v>
+      </c>
       <c r="M47"/>
       <c r="N47"/>
-      <c r="O47" s="22"/>
+      <c r="O47" s="19"/>
       <c r="P47"/>
     </row>
   </sheetData>
@@ -10976,7 +13202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10988,7 +13214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
